--- a/BackTest/2020-01-11 BackTest FCT.xlsx
+++ b/BackTest/2020-01-11 BackTest FCT.xlsx
@@ -556,14 +556,20 @@
         <v>36.45566666666663</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>35.66</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -598,7 +604,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -626,14 +636,20 @@
         <v>36.3973333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -667,12 +683,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>35.41</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -706,14 +724,12 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="K9" t="n">
         <v>35.5</v>
       </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -749,14 +765,12 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>35.42</v>
-      </c>
-      <c r="K10" t="n">
-        <v>35.5</v>
-      </c>
+        <v>35.41</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -792,11 +806,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43</v>
-      </c>
-      <c r="K11" t="n">
-        <v>35.5</v>
-      </c>
+        <v>35.41</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -829,17 +841,13 @@
         <v>36.27616666666663</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>35.43</v>
-      </c>
-      <c r="K12" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -872,17 +880,13 @@
         <v>36.25299999999996</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -923,9 +927,7 @@
       <c r="J14" t="n">
         <v>35.6</v>
       </c>
-      <c r="K14" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -966,9 +968,7 @@
       <c r="J15" t="n">
         <v>35.66</v>
       </c>
-      <c r="K15" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1001,17 +1001,13 @@
         <v>36.20116666666662</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>35.69</v>
-      </c>
-      <c r="K16" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1044,17 +1040,13 @@
         <v>36.19649999999995</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>36.22</v>
-      </c>
-      <c r="K17" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1087,17 +1079,13 @@
         <v>36.17649999999995</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>36.16</v>
-      </c>
-      <c r="K18" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1136,9 +1124,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1177,9 +1163,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1218,9 +1202,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1259,9 +1241,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1300,9 +1280,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1335,17 +1313,13 @@
         <v>36.05416666666664</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>35.92</v>
-      </c>
-      <c r="K24" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1378,17 +1352,13 @@
         <v>36.03416666666664</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="K25" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1421,17 +1391,13 @@
         <v>36.01699999999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="K26" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1464,17 +1430,13 @@
         <v>36.00049999999997</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>35.92</v>
-      </c>
-      <c r="K27" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1507,17 +1469,13 @@
         <v>35.98949999999996</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="K28" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1556,9 +1514,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1597,9 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1638,9 +1592,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1679,9 +1631,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1720,9 +1670,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1761,9 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1802,9 +1748,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1843,9 +1787,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1884,9 +1826,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1925,9 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1966,9 +1904,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2007,9 +1943,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2048,9 +1982,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2089,9 +2021,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2130,9 +2060,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2171,9 +2099,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2212,9 +2138,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,9 +2177,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2294,9 +2216,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2335,9 +2255,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2376,9 +2294,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2417,9 +2333,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2458,9 +2372,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2499,9 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2540,9 +2450,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2581,9 +2489,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2622,9 +2528,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2663,9 +2567,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2704,9 +2606,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2745,9 +2645,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2786,9 +2684,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2827,9 +2723,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2868,9 +2762,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2909,9 +2801,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,9 +2840,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2991,9 +2879,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3032,9 +2918,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3073,9 +2957,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,9 +2996,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,9 +3035,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,9 +3074,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3237,9 +3113,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,9 +3152,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,9 +3191,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,9 +3230,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3401,9 +3269,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3442,9 +3308,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3483,9 +3347,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3524,9 +3386,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,9 +3425,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3603,19 +3461,17 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1.042323943661972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3648,10 +3504,12 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3679,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3784,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3819,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest FCT.xlsx
+++ b/BackTest/2020-01-11 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>35.5</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>119.3357</v>
       </c>
       <c r="G2" t="n">
-        <v>36.51699999999997</v>
+        <v>36.5418333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.66</v>
+        <v>35.5</v>
       </c>
       <c r="C3" t="n">
-        <v>35.66</v>
+        <v>35.5</v>
       </c>
       <c r="D3" t="n">
-        <v>35.66</v>
+        <v>35.5</v>
       </c>
       <c r="E3" t="n">
-        <v>35.66</v>
+        <v>35.5</v>
       </c>
       <c r="F3" t="n">
-        <v>62.2524</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>36.4978333333333</v>
+        <v>36.51699999999997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>35.66</v>
       </c>
       <c r="F4" t="n">
-        <v>5691.9368</v>
+        <v>62.2524</v>
       </c>
       <c r="G4" t="n">
-        <v>36.48149999999997</v>
+        <v>36.4978333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,35 +541,29 @@
         <v>35.66</v>
       </c>
       <c r="C5" t="n">
-        <v>35.43</v>
+        <v>35.66</v>
       </c>
       <c r="D5" t="n">
         <v>35.66</v>
       </c>
       <c r="E5" t="n">
-        <v>35.43</v>
+        <v>35.66</v>
       </c>
       <c r="F5" t="n">
-        <v>8561.4012</v>
+        <v>5691.9368</v>
       </c>
       <c r="G5" t="n">
-        <v>36.45566666666663</v>
+        <v>36.48149999999997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -579,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35.42</v>
+        <v>35.66</v>
       </c>
       <c r="C6" t="n">
-        <v>35.41</v>
+        <v>35.43</v>
       </c>
       <c r="D6" t="n">
-        <v>35.42</v>
+        <v>35.66</v>
       </c>
       <c r="E6" t="n">
-        <v>35.41</v>
+        <v>35.43</v>
       </c>
       <c r="F6" t="n">
-        <v>42666.0309</v>
+        <v>8561.4012</v>
       </c>
       <c r="G6" t="n">
-        <v>36.42716666666663</v>
+        <v>36.45566666666663</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -604,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,38 +608,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35.41</v>
+        <v>35.42</v>
       </c>
       <c r="C7" t="n">
         <v>35.41</v>
       </c>
       <c r="D7" t="n">
-        <v>35.41</v>
+        <v>35.42</v>
       </c>
       <c r="E7" t="n">
         <v>35.41</v>
       </c>
       <c r="F7" t="n">
-        <v>13744.404</v>
+        <v>42666.0309</v>
       </c>
       <c r="G7" t="n">
-        <v>36.3973333333333</v>
+        <v>36.42716666666663</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>35.41</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -659,38 +643,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35.5</v>
+        <v>35.41</v>
       </c>
       <c r="C8" t="n">
-        <v>35.5</v>
+        <v>35.41</v>
       </c>
       <c r="D8" t="n">
-        <v>35.5</v>
+        <v>35.41</v>
       </c>
       <c r="E8" t="n">
-        <v>35.5</v>
+        <v>35.41</v>
       </c>
       <c r="F8" t="n">
-        <v>4280.2486</v>
+        <v>13744.404</v>
       </c>
       <c r="G8" t="n">
-        <v>36.36749999999996</v>
+        <v>36.3973333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>35.41</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -700,38 +678,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.41</v>
+        <v>35.5</v>
       </c>
       <c r="C9" t="n">
-        <v>35.41</v>
+        <v>35.5</v>
       </c>
       <c r="D9" t="n">
-        <v>35.41</v>
+        <v>35.5</v>
       </c>
       <c r="E9" t="n">
-        <v>35.41</v>
+        <v>35.5</v>
       </c>
       <c r="F9" t="n">
-        <v>6023.5775</v>
+        <v>4280.2486</v>
       </c>
       <c r="G9" t="n">
-        <v>36.35099999999996</v>
+        <v>36.36749999999996</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -741,38 +713,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.42</v>
+        <v>35.41</v>
       </c>
       <c r="C10" t="n">
         <v>35.41</v>
       </c>
       <c r="D10" t="n">
-        <v>35.42</v>
+        <v>35.41</v>
       </c>
       <c r="E10" t="n">
         <v>35.41</v>
       </c>
       <c r="F10" t="n">
-        <v>34040.8255</v>
+        <v>6023.5775</v>
       </c>
       <c r="G10" t="n">
-        <v>36.33449999999996</v>
+        <v>36.35099999999996</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>35.41</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -782,38 +748,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>35.43</v>
+        <v>35.42</v>
       </c>
       <c r="C11" t="n">
-        <v>35.43</v>
+        <v>35.41</v>
       </c>
       <c r="D11" t="n">
-        <v>35.43</v>
+        <v>35.42</v>
       </c>
       <c r="E11" t="n">
-        <v>35.42</v>
+        <v>35.41</v>
       </c>
       <c r="F11" t="n">
-        <v>27888.6237</v>
+        <v>34040.8255</v>
       </c>
       <c r="G11" t="n">
-        <v>36.30533333333329</v>
+        <v>36.33449999999996</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>35.41</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -832,13 +792,13 @@
         <v>35.43</v>
       </c>
       <c r="E12" t="n">
-        <v>35.43</v>
+        <v>35.42</v>
       </c>
       <c r="F12" t="n">
-        <v>85639.4598</v>
+        <v>27888.6237</v>
       </c>
       <c r="G12" t="n">
-        <v>36.27616666666663</v>
+        <v>36.30533333333329</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -848,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -862,36 +818,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35.6</v>
+        <v>35.43</v>
       </c>
       <c r="C13" t="n">
-        <v>35.6</v>
+        <v>35.43</v>
       </c>
       <c r="D13" t="n">
-        <v>35.6</v>
+        <v>35.43</v>
       </c>
       <c r="E13" t="n">
-        <v>35.6</v>
+        <v>35.43</v>
       </c>
       <c r="F13" t="n">
-        <v>1404.4944</v>
+        <v>85639.4598</v>
       </c>
       <c r="G13" t="n">
-        <v>36.25299999999996</v>
+        <v>36.27616666666663</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="K13" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -904,33 +860,33 @@
         <v>35.6</v>
       </c>
       <c r="C14" t="n">
-        <v>35.66</v>
+        <v>35.6</v>
       </c>
       <c r="D14" t="n">
-        <v>35.66</v>
+        <v>35.6</v>
       </c>
       <c r="E14" t="n">
         <v>35.6</v>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>1404.4944</v>
       </c>
       <c r="G14" t="n">
-        <v>36.23399999999995</v>
+        <v>36.25299999999996</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>35.43</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -942,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>35.66</v>
+        <v>35.6</v>
       </c>
       <c r="C15" t="n">
         <v>35.66</v>
@@ -951,27 +907,27 @@
         <v>35.66</v>
       </c>
       <c r="E15" t="n">
-        <v>35.66</v>
+        <v>35.6</v>
       </c>
       <c r="F15" t="n">
-        <v>1445.5101</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="n">
-        <v>36.21499999999995</v>
+        <v>36.23399999999995</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>35.43</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -983,22 +939,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>35.69</v>
+        <v>35.66</v>
       </c>
       <c r="C16" t="n">
-        <v>36.16</v>
+        <v>35.66</v>
       </c>
       <c r="D16" t="n">
-        <v>36.16</v>
+        <v>35.66</v>
       </c>
       <c r="E16" t="n">
-        <v>35.69</v>
+        <v>35.66</v>
       </c>
       <c r="F16" t="n">
-        <v>1900.5168</v>
+        <v>1445.5101</v>
       </c>
       <c r="G16" t="n">
-        <v>36.20116666666662</v>
+        <v>36.21499999999995</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1008,11 +964,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1022,22 +974,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>36.22</v>
+        <v>35.69</v>
       </c>
       <c r="C17" t="n">
-        <v>36.71</v>
+        <v>36.16</v>
       </c>
       <c r="D17" t="n">
-        <v>36.71</v>
+        <v>36.16</v>
       </c>
       <c r="E17" t="n">
-        <v>36.22</v>
+        <v>35.69</v>
       </c>
       <c r="F17" t="n">
-        <v>218.9324742032144</v>
+        <v>1900.5168</v>
       </c>
       <c r="G17" t="n">
-        <v>36.19649999999995</v>
+        <v>36.20116666666662</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1047,11 +999,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1061,22 +1009,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36.16</v>
+        <v>36.22</v>
       </c>
       <c r="C18" t="n">
-        <v>35.8</v>
+        <v>36.71</v>
       </c>
       <c r="D18" t="n">
-        <v>36.16</v>
+        <v>36.71</v>
       </c>
       <c r="E18" t="n">
-        <v>35.8</v>
+        <v>36.22</v>
       </c>
       <c r="F18" t="n">
-        <v>16487.575</v>
+        <v>218.9324742032144</v>
       </c>
       <c r="G18" t="n">
-        <v>36.17649999999995</v>
+        <v>36.19649999999995</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1086,11 +1034,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1100,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>35.92</v>
+        <v>36.16</v>
       </c>
       <c r="C19" t="n">
-        <v>35.92</v>
+        <v>35.8</v>
       </c>
       <c r="D19" t="n">
-        <v>35.92</v>
+        <v>36.16</v>
       </c>
       <c r="E19" t="n">
-        <v>35.92</v>
+        <v>35.8</v>
       </c>
       <c r="F19" t="n">
-        <v>55.6793</v>
+        <v>16487.575</v>
       </c>
       <c r="G19" t="n">
-        <v>36.15866666666663</v>
+        <v>36.17649999999995</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1125,11 +1069,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1139,22 +1079,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>35.9</v>
+        <v>35.92</v>
       </c>
       <c r="C20" t="n">
-        <v>35.9</v>
+        <v>35.92</v>
       </c>
       <c r="D20" t="n">
-        <v>35.9</v>
+        <v>35.92</v>
       </c>
       <c r="E20" t="n">
-        <v>35.9</v>
+        <v>35.92</v>
       </c>
       <c r="F20" t="n">
-        <v>2454.8508</v>
+        <v>55.6793</v>
       </c>
       <c r="G20" t="n">
-        <v>36.14049999999997</v>
+        <v>36.15866666666663</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1164,11 +1104,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1181,19 +1117,19 @@
         <v>35.9</v>
       </c>
       <c r="C21" t="n">
-        <v>35.75</v>
+        <v>35.9</v>
       </c>
       <c r="D21" t="n">
         <v>35.9</v>
       </c>
       <c r="E21" t="n">
-        <v>35.75</v>
+        <v>35.9</v>
       </c>
       <c r="F21" t="n">
-        <v>27365.8601</v>
+        <v>2454.8508</v>
       </c>
       <c r="G21" t="n">
-        <v>36.1198333333333</v>
+        <v>36.14049999999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1203,11 +1139,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1149,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>35.75</v>
+        <v>35.9</v>
       </c>
       <c r="C22" t="n">
         <v>35.75</v>
       </c>
       <c r="D22" t="n">
-        <v>35.75</v>
+        <v>35.9</v>
       </c>
       <c r="E22" t="n">
         <v>35.75</v>
       </c>
       <c r="F22" t="n">
-        <v>9522.1129</v>
+        <v>27365.8601</v>
       </c>
       <c r="G22" t="n">
-        <v>36.09649999999997</v>
+        <v>36.1198333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1242,11 +1174,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1256,22 +1184,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>35.7</v>
+        <v>35.75</v>
       </c>
       <c r="C23" t="n">
-        <v>35.68</v>
+        <v>35.75</v>
       </c>
       <c r="D23" t="n">
-        <v>35.7</v>
+        <v>35.75</v>
       </c>
       <c r="E23" t="n">
-        <v>35.68</v>
+        <v>35.75</v>
       </c>
       <c r="F23" t="n">
-        <v>60196.9969</v>
+        <v>9522.1129</v>
       </c>
       <c r="G23" t="n">
-        <v>36.07199999999997</v>
+        <v>36.09649999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1281,11 +1209,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1295,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>35.92</v>
+        <v>35.7</v>
       </c>
       <c r="C24" t="n">
-        <v>35.92</v>
+        <v>35.68</v>
       </c>
       <c r="D24" t="n">
-        <v>35.92</v>
+        <v>35.7</v>
       </c>
       <c r="E24" t="n">
-        <v>35.92</v>
+        <v>35.68</v>
       </c>
       <c r="F24" t="n">
-        <v>13.999</v>
+        <v>60196.9969</v>
       </c>
       <c r="G24" t="n">
-        <v>36.05416666666664</v>
+        <v>36.07199999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1320,11 +1244,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1334,22 +1254,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>35.77</v>
+        <v>35.92</v>
       </c>
       <c r="C25" t="n">
-        <v>35.77</v>
+        <v>35.92</v>
       </c>
       <c r="D25" t="n">
-        <v>35.77</v>
+        <v>35.92</v>
       </c>
       <c r="E25" t="n">
-        <v>35.77</v>
+        <v>35.92</v>
       </c>
       <c r="F25" t="n">
-        <v>2573.0528</v>
+        <v>13.999</v>
       </c>
       <c r="G25" t="n">
-        <v>36.03416666666664</v>
+        <v>36.05416666666664</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1359,11 +1279,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1385,10 +1301,10 @@
         <v>35.77</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>2573.0528</v>
       </c>
       <c r="G26" t="n">
-        <v>36.01699999999997</v>
+        <v>36.03416666666664</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1398,11 +1314,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1412,22 +1324,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>35.92</v>
+        <v>35.77</v>
       </c>
       <c r="C27" t="n">
-        <v>36.16</v>
+        <v>35.77</v>
       </c>
       <c r="D27" t="n">
-        <v>36.16</v>
+        <v>35.77</v>
       </c>
       <c r="E27" t="n">
-        <v>35.92</v>
+        <v>35.77</v>
       </c>
       <c r="F27" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>36.00049999999997</v>
+        <v>36.01699999999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1437,11 +1349,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1451,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>36.09</v>
+        <v>35.92</v>
       </c>
       <c r="C28" t="n">
-        <v>36.49</v>
+        <v>36.16</v>
       </c>
       <c r="D28" t="n">
-        <v>36.49</v>
+        <v>36.16</v>
       </c>
       <c r="E28" t="n">
-        <v>35.8</v>
+        <v>35.92</v>
       </c>
       <c r="F28" t="n">
-        <v>2302.7422</v>
+        <v>48</v>
       </c>
       <c r="G28" t="n">
-        <v>35.98949999999996</v>
+        <v>36.00049999999997</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1476,11 +1384,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1490,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>36.08</v>
+        <v>36.09</v>
       </c>
       <c r="C29" t="n">
-        <v>35.91</v>
+        <v>36.49</v>
       </c>
       <c r="D29" t="n">
-        <v>36.08</v>
+        <v>36.49</v>
       </c>
       <c r="E29" t="n">
-        <v>35.91</v>
+        <v>35.8</v>
       </c>
       <c r="F29" t="n">
-        <v>111.1272</v>
+        <v>2302.7422</v>
       </c>
       <c r="G29" t="n">
-        <v>35.97183333333329</v>
+        <v>35.98949999999996</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1515,11 +1419,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1529,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>36.09</v>
+        <v>36.08</v>
       </c>
       <c r="C30" t="n">
-        <v>36.39</v>
+        <v>35.91</v>
       </c>
       <c r="D30" t="n">
-        <v>36.39</v>
+        <v>36.08</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09</v>
+        <v>35.91</v>
       </c>
       <c r="F30" t="n">
-        <v>63.7296</v>
+        <v>111.1272</v>
       </c>
       <c r="G30" t="n">
-        <v>35.96499999999995</v>
+        <v>35.97183333333329</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1554,11 +1454,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1568,22 +1464,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>36.22</v>
+        <v>36.09</v>
       </c>
       <c r="C31" t="n">
-        <v>36.49</v>
+        <v>36.39</v>
       </c>
       <c r="D31" t="n">
-        <v>36.49</v>
+        <v>36.39</v>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>36.09</v>
       </c>
       <c r="F31" t="n">
-        <v>4049.1223</v>
+        <v>63.7296</v>
       </c>
       <c r="G31" t="n">
-        <v>35.95699999999996</v>
+        <v>35.96499999999995</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1593,11 +1489,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1607,22 +1499,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>36.1</v>
+        <v>36.22</v>
       </c>
       <c r="C32" t="n">
-        <v>36.45</v>
+        <v>36.49</v>
       </c>
       <c r="D32" t="n">
         <v>36.49</v>
       </c>
       <c r="E32" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="F32" t="n">
-        <v>106.7485</v>
+        <v>4049.1223</v>
       </c>
       <c r="G32" t="n">
-        <v>35.94849999999995</v>
+        <v>35.95699999999996</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1632,11 +1524,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1646,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>36.45</v>
+        <v>36.1</v>
       </c>
       <c r="C33" t="n">
         <v>36.45</v>
       </c>
       <c r="D33" t="n">
-        <v>36.45</v>
+        <v>36.49</v>
       </c>
       <c r="E33" t="n">
-        <v>36.45</v>
+        <v>36.1</v>
       </c>
       <c r="F33" t="n">
-        <v>579.4257</v>
+        <v>106.7485</v>
       </c>
       <c r="G33" t="n">
-        <v>35.93966666666662</v>
+        <v>35.94849999999995</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1671,11 +1559,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1688,19 +1572,19 @@
         <v>36.45</v>
       </c>
       <c r="C34" t="n">
-        <v>36.46</v>
+        <v>36.45</v>
       </c>
       <c r="D34" t="n">
-        <v>36.46</v>
+        <v>36.45</v>
       </c>
       <c r="E34" t="n">
         <v>36.45</v>
       </c>
       <c r="F34" t="n">
-        <v>13812.1024</v>
+        <v>579.4257</v>
       </c>
       <c r="G34" t="n">
-        <v>35.93083333333329</v>
+        <v>35.93966666666662</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1710,11 +1594,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1724,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.46</v>
+        <v>36.45</v>
       </c>
       <c r="C35" t="n">
         <v>36.46</v>
@@ -1733,27 +1613,23 @@
         <v>36.46</v>
       </c>
       <c r="E35" t="n">
-        <v>36.46</v>
+        <v>36.45</v>
       </c>
       <c r="F35" t="n">
-        <v>100.7432</v>
+        <v>13812.1024</v>
       </c>
       <c r="G35" t="n">
-        <v>35.92183333333329</v>
+        <v>35.93083333333329</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1763,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>36.45</v>
+        <v>36.46</v>
       </c>
       <c r="C36" t="n">
         <v>36.46</v>
@@ -1772,27 +1648,23 @@
         <v>36.46</v>
       </c>
       <c r="E36" t="n">
-        <v>36.45</v>
+        <v>36.46</v>
       </c>
       <c r="F36" t="n">
-        <v>16.461</v>
+        <v>100.7432</v>
       </c>
       <c r="G36" t="n">
-        <v>35.91616666666662</v>
+        <v>35.92183333333329</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1802,36 +1674,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>36.18</v>
+        <v>36.45</v>
       </c>
       <c r="C37" t="n">
-        <v>35.81</v>
+        <v>36.46</v>
       </c>
       <c r="D37" t="n">
-        <v>36.18</v>
+        <v>36.46</v>
       </c>
       <c r="E37" t="n">
-        <v>35.81</v>
+        <v>36.45</v>
       </c>
       <c r="F37" t="n">
-        <v>31840.7198</v>
+        <v>16.461</v>
       </c>
       <c r="G37" t="n">
-        <v>35.90633333333328</v>
+        <v>35.91616666666662</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1841,36 +1709,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.8</v>
+        <v>36.18</v>
       </c>
       <c r="C38" t="n">
-        <v>36.45</v>
+        <v>35.81</v>
       </c>
       <c r="D38" t="n">
-        <v>36.45</v>
+        <v>36.18</v>
       </c>
       <c r="E38" t="n">
-        <v>35.8</v>
+        <v>35.81</v>
       </c>
       <c r="F38" t="n">
-        <v>2108.4953</v>
+        <v>31840.7198</v>
       </c>
       <c r="G38" t="n">
-        <v>35.90883333333328</v>
+        <v>35.90633333333328</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1880,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>36.31</v>
+        <v>35.8</v>
       </c>
       <c r="C39" t="n">
         <v>36.45</v>
@@ -1889,13 +1753,13 @@
         <v>36.45</v>
       </c>
       <c r="E39" t="n">
-        <v>36.31</v>
+        <v>35.8</v>
       </c>
       <c r="F39" t="n">
-        <v>8386.67151234568</v>
+        <v>2108.4953</v>
       </c>
       <c r="G39" t="n">
-        <v>35.9096666666666</v>
+        <v>35.90883333333328</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1905,11 +1769,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1922,19 +1782,19 @@
         <v>36.31</v>
       </c>
       <c r="C40" t="n">
-        <v>35.8</v>
+        <v>36.45</v>
       </c>
       <c r="D40" t="n">
+        <v>36.45</v>
+      </c>
+      <c r="E40" t="n">
         <v>36.31</v>
       </c>
-      <c r="E40" t="n">
-        <v>35.8</v>
-      </c>
       <c r="F40" t="n">
-        <v>21722.2834</v>
+        <v>8386.67151234568</v>
       </c>
       <c r="G40" t="n">
-        <v>35.90133333333327</v>
+        <v>35.9096666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1944,11 +1804,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1958,22 +1814,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>35.91</v>
+        <v>36.31</v>
       </c>
       <c r="C41" t="n">
-        <v>35.5</v>
+        <v>35.8</v>
       </c>
       <c r="D41" t="n">
-        <v>35.91</v>
+        <v>36.31</v>
       </c>
       <c r="E41" t="n">
-        <v>35.5</v>
+        <v>35.8</v>
       </c>
       <c r="F41" t="n">
-        <v>126326.0929</v>
+        <v>21722.2834</v>
       </c>
       <c r="G41" t="n">
-        <v>35.89133333333327</v>
+        <v>35.90133333333327</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1983,11 +1839,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1997,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>35.92</v>
+        <v>35.91</v>
       </c>
       <c r="C42" t="n">
-        <v>36.6</v>
+        <v>35.5</v>
       </c>
       <c r="D42" t="n">
-        <v>36.6</v>
+        <v>35.91</v>
       </c>
       <c r="E42" t="n">
-        <v>35.92</v>
+        <v>35.5</v>
       </c>
       <c r="F42" t="n">
-        <v>27278.3447</v>
+        <v>126326.0929</v>
       </c>
       <c r="G42" t="n">
-        <v>35.90133333333327</v>
+        <v>35.89133333333327</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2022,11 +1874,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2036,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>36.08</v>
+        <v>35.92</v>
       </c>
       <c r="C43" t="n">
         <v>36.6</v>
@@ -2045,13 +1893,13 @@
         <v>36.6</v>
       </c>
       <c r="E43" t="n">
-        <v>36.08</v>
+        <v>35.92</v>
       </c>
       <c r="F43" t="n">
-        <v>115522.2068566393</v>
+        <v>27278.3447</v>
       </c>
       <c r="G43" t="n">
-        <v>35.9096666666666</v>
+        <v>35.90133333333327</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2061,11 +1909,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2075,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>36.21</v>
+        <v>36.08</v>
       </c>
       <c r="C44" t="n">
         <v>36.6</v>
@@ -2084,13 +1928,13 @@
         <v>36.6</v>
       </c>
       <c r="E44" t="n">
-        <v>36.21</v>
+        <v>36.08</v>
       </c>
       <c r="F44" t="n">
-        <v>190.3803</v>
+        <v>115522.2068566393</v>
       </c>
       <c r="G44" t="n">
-        <v>35.9231666666666</v>
+        <v>35.9096666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2100,11 +1944,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2114,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>36.34</v>
+        <v>36.21</v>
       </c>
       <c r="C45" t="n">
-        <v>36.34</v>
+        <v>36.6</v>
       </c>
       <c r="D45" t="n">
-        <v>36.34</v>
+        <v>36.6</v>
       </c>
       <c r="E45" t="n">
-        <v>36.17</v>
+        <v>36.21</v>
       </c>
       <c r="F45" t="n">
-        <v>97.5538</v>
+        <v>190.3803</v>
       </c>
       <c r="G45" t="n">
-        <v>35.92716666666661</v>
+        <v>35.9231666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2139,11 +1979,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2153,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>36.33</v>
+        <v>36.34</v>
       </c>
       <c r="C46" t="n">
-        <v>36.6</v>
+        <v>36.34</v>
       </c>
       <c r="D46" t="n">
-        <v>36.6</v>
+        <v>36.34</v>
       </c>
       <c r="E46" t="n">
-        <v>36.33</v>
+        <v>36.17</v>
       </c>
       <c r="F46" t="n">
-        <v>20789.90036288738</v>
+        <v>97.5538</v>
       </c>
       <c r="G46" t="n">
-        <v>35.93883333333327</v>
+        <v>35.92716666666661</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2178,11 +2014,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2192,7 +2024,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>36.34</v>
+        <v>36.33</v>
       </c>
       <c r="C47" t="n">
         <v>36.6</v>
@@ -2201,13 +2033,13 @@
         <v>36.6</v>
       </c>
       <c r="E47" t="n">
-        <v>36.34</v>
+        <v>36.33</v>
       </c>
       <c r="F47" t="n">
-        <v>30577.71334808743</v>
+        <v>20789.90036288738</v>
       </c>
       <c r="G47" t="n">
-        <v>35.9471666666666</v>
+        <v>35.93883333333327</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2217,11 +2049,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2231,7 +2059,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>36.6</v>
+        <v>36.34</v>
       </c>
       <c r="C48" t="n">
         <v>36.6</v>
@@ -2240,13 +2068,13 @@
         <v>36.6</v>
       </c>
       <c r="E48" t="n">
-        <v>36.6</v>
+        <v>36.34</v>
       </c>
       <c r="F48" t="n">
-        <v>2901.612021857924</v>
+        <v>30577.71334808743</v>
       </c>
       <c r="G48" t="n">
-        <v>35.95549999999994</v>
+        <v>35.9471666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2256,11 +2084,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2270,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>36.34</v>
+        <v>36.6</v>
       </c>
       <c r="C49" t="n">
-        <v>36.34</v>
+        <v>36.6</v>
       </c>
       <c r="D49" t="n">
-        <v>36.34</v>
+        <v>36.6</v>
       </c>
       <c r="E49" t="n">
-        <v>36.34</v>
+        <v>36.6</v>
       </c>
       <c r="F49" t="n">
-        <v>40.0358</v>
+        <v>2901.612021857924</v>
       </c>
       <c r="G49" t="n">
-        <v>35.96283333333327</v>
+        <v>35.95549999999994</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2295,11 +2119,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2309,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>36.3</v>
+        <v>36.34</v>
       </c>
       <c r="C50" t="n">
-        <v>36.58</v>
+        <v>36.34</v>
       </c>
       <c r="D50" t="n">
-        <v>36.58</v>
+        <v>36.34</v>
       </c>
       <c r="E50" t="n">
-        <v>36.3</v>
+        <v>36.34</v>
       </c>
       <c r="F50" t="n">
-        <v>17411.8274</v>
+        <v>40.0358</v>
       </c>
       <c r="G50" t="n">
-        <v>35.97499999999994</v>
+        <v>35.96283333333327</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2334,11 +2154,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2164,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>36.58</v>
+        <v>36.3</v>
       </c>
       <c r="C51" t="n">
         <v>36.58</v>
@@ -2357,13 +2173,13 @@
         <v>36.58</v>
       </c>
       <c r="E51" t="n">
-        <v>36.58</v>
+        <v>36.3</v>
       </c>
       <c r="F51" t="n">
-        <v>32.8049</v>
+        <v>17411.8274</v>
       </c>
       <c r="G51" t="n">
-        <v>35.9871666666666</v>
+        <v>35.97499999999994</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2373,11 +2189,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2387,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>36.34</v>
+        <v>36.58</v>
       </c>
       <c r="C52" t="n">
-        <v>36.34</v>
+        <v>36.58</v>
       </c>
       <c r="D52" t="n">
-        <v>36.34</v>
+        <v>36.58</v>
       </c>
       <c r="E52" t="n">
-        <v>36.34</v>
+        <v>36.58</v>
       </c>
       <c r="F52" t="n">
-        <v>3457.3782</v>
+        <v>32.8049</v>
       </c>
       <c r="G52" t="n">
-        <v>35.9961666666666</v>
+        <v>35.9871666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2412,11 +2224,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2438,10 +2246,10 @@
         <v>36.34</v>
       </c>
       <c r="F53" t="n">
-        <v>3817</v>
+        <v>3457.3782</v>
       </c>
       <c r="G53" t="n">
-        <v>36.0051666666666</v>
+        <v>35.9961666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2451,11 +2259,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2465,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>36.52</v>
+        <v>36.34</v>
       </c>
       <c r="C54" t="n">
-        <v>36.52</v>
+        <v>36.34</v>
       </c>
       <c r="D54" t="n">
-        <v>36.52</v>
+        <v>36.34</v>
       </c>
       <c r="E54" t="n">
-        <v>36.52</v>
+        <v>36.34</v>
       </c>
       <c r="F54" t="n">
-        <v>13.6912</v>
+        <v>3817</v>
       </c>
       <c r="G54" t="n">
-        <v>36.01549999999994</v>
+        <v>36.0051666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2490,11 +2294,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2504,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>36.34</v>
+        <v>36.52</v>
       </c>
       <c r="C55" t="n">
-        <v>36.34</v>
+        <v>36.52</v>
       </c>
       <c r="D55" t="n">
-        <v>36.34</v>
+        <v>36.52</v>
       </c>
       <c r="E55" t="n">
-        <v>36.34</v>
+        <v>36.52</v>
       </c>
       <c r="F55" t="n">
-        <v>569.6453</v>
+        <v>13.6912</v>
       </c>
       <c r="G55" t="n">
-        <v>36.01949999999994</v>
+        <v>36.01549999999994</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2529,11 +2329,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2555,10 +2351,10 @@
         <v>36.34</v>
       </c>
       <c r="F56" t="n">
-        <v>15.4317</v>
+        <v>569.6453</v>
       </c>
       <c r="G56" t="n">
-        <v>36.02866666666661</v>
+        <v>36.01949999999994</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2568,11 +2364,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2594,10 +2386,10 @@
         <v>36.34</v>
       </c>
       <c r="F57" t="n">
-        <v>602.4786</v>
+        <v>15.4317</v>
       </c>
       <c r="G57" t="n">
-        <v>36.03433333333328</v>
+        <v>36.02866666666661</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2607,11 +2399,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2633,10 +2421,10 @@
         <v>36.34</v>
       </c>
       <c r="F58" t="n">
-        <v>165.1074</v>
+        <v>602.4786</v>
       </c>
       <c r="G58" t="n">
-        <v>36.04966666666662</v>
+        <v>36.03433333333328</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2646,11 +2434,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2672,10 +2456,10 @@
         <v>36.34</v>
       </c>
       <c r="F59" t="n">
-        <v>5446</v>
+        <v>165.1074</v>
       </c>
       <c r="G59" t="n">
-        <v>36.06099999999995</v>
+        <v>36.04966666666662</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2685,11 +2469,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2711,10 +2491,10 @@
         <v>36.34</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4652</v>
+        <v>5446</v>
       </c>
       <c r="G60" t="n">
-        <v>36.07016666666662</v>
+        <v>36.06099999999995</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2724,11 +2504,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2738,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>36.48</v>
+        <v>36.34</v>
       </c>
       <c r="C61" t="n">
-        <v>36.48</v>
+        <v>36.34</v>
       </c>
       <c r="D61" t="n">
-        <v>36.48</v>
+        <v>36.34</v>
       </c>
       <c r="E61" t="n">
-        <v>36.48</v>
+        <v>36.34</v>
       </c>
       <c r="F61" t="n">
-        <v>15.2599</v>
+        <v>0.4652</v>
       </c>
       <c r="G61" t="n">
-        <v>36.08649999999996</v>
+        <v>36.07016666666662</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2763,11 +2539,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2777,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>36.34</v>
+        <v>36.48</v>
       </c>
       <c r="C62" t="n">
-        <v>36.34</v>
+        <v>36.48</v>
       </c>
       <c r="D62" t="n">
-        <v>36.34</v>
+        <v>36.48</v>
       </c>
       <c r="E62" t="n">
-        <v>36.34</v>
+        <v>36.48</v>
       </c>
       <c r="F62" t="n">
-        <v>15.4504</v>
+        <v>15.2599</v>
       </c>
       <c r="G62" t="n">
-        <v>36.10049999999996</v>
+        <v>36.08649999999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2802,11 +2574,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2816,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>36.17</v>
+        <v>36.34</v>
       </c>
       <c r="C63" t="n">
-        <v>36.46</v>
+        <v>36.34</v>
       </c>
       <c r="D63" t="n">
-        <v>36.46</v>
+        <v>36.34</v>
       </c>
       <c r="E63" t="n">
-        <v>36.17</v>
+        <v>36.34</v>
       </c>
       <c r="F63" t="n">
-        <v>19930</v>
+        <v>15.4504</v>
       </c>
       <c r="G63" t="n">
-        <v>36.1138333333333</v>
+        <v>36.10049999999996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2841,11 +2609,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2855,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>36.2</v>
+        <v>36.17</v>
       </c>
       <c r="C64" t="n">
-        <v>36.4</v>
+        <v>36.46</v>
       </c>
       <c r="D64" t="n">
-        <v>36.4</v>
+        <v>36.46</v>
       </c>
       <c r="E64" t="n">
-        <v>36</v>
+        <v>36.17</v>
       </c>
       <c r="F64" t="n">
-        <v>26855.2945</v>
+        <v>19930</v>
       </c>
       <c r="G64" t="n">
-        <v>36.12616666666663</v>
+        <v>36.1138333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2880,11 +2644,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2894,7 +2654,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C65" t="n">
         <v>36.4</v>
@@ -2903,13 +2663,13 @@
         <v>36.4</v>
       </c>
       <c r="E65" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="F65" t="n">
-        <v>230.8856</v>
+        <v>26855.2945</v>
       </c>
       <c r="G65" t="n">
-        <v>36.1423333333333</v>
+        <v>36.12616666666663</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2919,11 +2679,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2933,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>36.17</v>
+        <v>36.4</v>
       </c>
       <c r="C66" t="n">
-        <v>36.17</v>
+        <v>36.4</v>
       </c>
       <c r="D66" t="n">
-        <v>36.17</v>
+        <v>36.4</v>
       </c>
       <c r="E66" t="n">
-        <v>36.17</v>
+        <v>36.4</v>
       </c>
       <c r="F66" t="n">
-        <v>55.2944</v>
+        <v>230.8856</v>
       </c>
       <c r="G66" t="n">
-        <v>36.15499999999997</v>
+        <v>36.1423333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2958,11 +2714,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2975,19 +2727,19 @@
         <v>36.17</v>
       </c>
       <c r="C67" t="n">
-        <v>36.4</v>
+        <v>36.17</v>
       </c>
       <c r="D67" t="n">
-        <v>36.4</v>
+        <v>36.17</v>
       </c>
       <c r="E67" t="n">
         <v>36.17</v>
       </c>
       <c r="F67" t="n">
-        <v>238.01</v>
+        <v>55.2944</v>
       </c>
       <c r="G67" t="n">
-        <v>36.17149999999997</v>
+        <v>36.15499999999997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2997,11 +2749,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3011,7 +2759,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>36.4</v>
+        <v>36.17</v>
       </c>
       <c r="C68" t="n">
         <v>36.4</v>
@@ -3020,13 +2768,13 @@
         <v>36.4</v>
       </c>
       <c r="E68" t="n">
-        <v>36.4</v>
+        <v>36.17</v>
       </c>
       <c r="F68" t="n">
-        <v>54.9451</v>
+        <v>238.01</v>
       </c>
       <c r="G68" t="n">
-        <v>36.18649999999998</v>
+        <v>36.17149999999997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3036,11 +2784,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3050,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C69" t="n">
-        <v>36.49</v>
+        <v>36.4</v>
       </c>
       <c r="D69" t="n">
-        <v>36.49</v>
+        <v>36.4</v>
       </c>
       <c r="E69" t="n">
-        <v>36</v>
+        <v>36.4</v>
       </c>
       <c r="F69" t="n">
-        <v>47000</v>
+        <v>54.9451</v>
       </c>
       <c r="G69" t="n">
-        <v>36.20449999999997</v>
+        <v>36.18649999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3075,11 +2819,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3089,22 +2829,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>36.17</v>
+        <v>36.2</v>
       </c>
       <c r="C70" t="n">
-        <v>36.17</v>
+        <v>36.49</v>
       </c>
       <c r="D70" t="n">
-        <v>36.17</v>
+        <v>36.49</v>
       </c>
       <c r="E70" t="n">
-        <v>36.17</v>
+        <v>36</v>
       </c>
       <c r="F70" t="n">
-        <v>55.2944</v>
+        <v>47000</v>
       </c>
       <c r="G70" t="n">
-        <v>36.21716666666665</v>
+        <v>36.20449999999997</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3114,11 +2854,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +2864,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>36.35</v>
+        <v>36.17</v>
       </c>
       <c r="C71" t="n">
-        <v>36.35</v>
+        <v>36.17</v>
       </c>
       <c r="D71" t="n">
-        <v>36.35</v>
+        <v>36.17</v>
       </c>
       <c r="E71" t="n">
-        <v>36.35</v>
+        <v>36.17</v>
       </c>
       <c r="F71" t="n">
-        <v>61.0602</v>
+        <v>55.2944</v>
       </c>
       <c r="G71" t="n">
-        <v>36.23249999999998</v>
+        <v>36.21716666666665</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3153,11 +2889,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3179,10 +2911,10 @@
         <v>36.35</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9398</v>
+        <v>61.0602</v>
       </c>
       <c r="G72" t="n">
-        <v>36.24783333333332</v>
+        <v>36.23249999999998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3192,11 +2924,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3206,22 +2934,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>36.4</v>
+        <v>36.35</v>
       </c>
       <c r="C73" t="n">
-        <v>36.4</v>
+        <v>36.35</v>
       </c>
       <c r="D73" t="n">
-        <v>36.4</v>
+        <v>36.35</v>
       </c>
       <c r="E73" t="n">
-        <v>36.4</v>
+        <v>36.35</v>
       </c>
       <c r="F73" t="n">
-        <v>13.7363</v>
+        <v>0.9398</v>
       </c>
       <c r="G73" t="n">
-        <v>36.26116666666665</v>
+        <v>36.24783333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3231,11 +2959,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3257,10 +2981,10 @@
         <v>36.4</v>
       </c>
       <c r="F74" t="n">
-        <v>15757.078</v>
+        <v>13.7363</v>
       </c>
       <c r="G74" t="n">
-        <v>36.27349999999999</v>
+        <v>36.26116666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3270,11 +2994,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3287,19 +3007,19 @@
         <v>36.4</v>
       </c>
       <c r="C75" t="n">
-        <v>37.28</v>
+        <v>36.4</v>
       </c>
       <c r="D75" t="n">
-        <v>37.28</v>
+        <v>36.4</v>
       </c>
       <c r="E75" t="n">
-        <v>36</v>
+        <v>36.4</v>
       </c>
       <c r="F75" t="n">
-        <v>153000</v>
+        <v>15757.078</v>
       </c>
       <c r="G75" t="n">
-        <v>36.30049999999999</v>
+        <v>36.27349999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3309,11 +3029,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3323,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>36.35</v>
+        <v>36.4</v>
       </c>
       <c r="C76" t="n">
-        <v>37.25</v>
+        <v>37.28</v>
       </c>
       <c r="D76" t="n">
-        <v>37.25</v>
+        <v>37.28</v>
       </c>
       <c r="E76" t="n">
-        <v>36.35</v>
+        <v>36</v>
       </c>
       <c r="F76" t="n">
-        <v>108309.0156</v>
+        <v>153000</v>
       </c>
       <c r="G76" t="n">
-        <v>36.31866666666667</v>
+        <v>36.30049999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3348,11 +3064,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3362,7 +3074,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>36.65</v>
+        <v>36.35</v>
       </c>
       <c r="C77" t="n">
         <v>37.25</v>
@@ -3371,13 +3083,13 @@
         <v>37.25</v>
       </c>
       <c r="E77" t="n">
-        <v>36.65</v>
+        <v>36.35</v>
       </c>
       <c r="F77" t="n">
-        <v>123.1415</v>
+        <v>108309.0156</v>
       </c>
       <c r="G77" t="n">
-        <v>36.32766666666667</v>
+        <v>36.31866666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3387,11 +3099,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3401,7 +3109,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>36.95</v>
+        <v>36.65</v>
       </c>
       <c r="C78" t="n">
         <v>37.25</v>
@@ -3410,13 +3118,13 @@
         <v>37.25</v>
       </c>
       <c r="E78" t="n">
-        <v>36.95</v>
+        <v>36.65</v>
       </c>
       <c r="F78" t="n">
-        <v>120.1093</v>
+        <v>123.1415</v>
       </c>
       <c r="G78" t="n">
-        <v>36.35183333333332</v>
+        <v>36.32766666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3426,11 +3134,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3440,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>37.18</v>
+        <v>36.95</v>
       </c>
       <c r="C79" t="n">
-        <v>37.18</v>
+        <v>37.25</v>
       </c>
       <c r="D79" t="n">
-        <v>37.18</v>
+        <v>37.25</v>
       </c>
       <c r="E79" t="n">
-        <v>37.18</v>
+        <v>36.95</v>
       </c>
       <c r="F79" t="n">
-        <v>14.0917</v>
+        <v>120.1093</v>
       </c>
       <c r="G79" t="n">
-        <v>36.37283333333333</v>
+        <v>36.35183333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3465,11 +3169,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3479,37 +3179,35 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>36.95</v>
+        <v>37.18</v>
       </c>
       <c r="C80" t="n">
-        <v>36.95</v>
+        <v>37.18</v>
       </c>
       <c r="D80" t="n">
-        <v>36.95</v>
+        <v>37.18</v>
       </c>
       <c r="E80" t="n">
-        <v>36.95</v>
+        <v>37.18</v>
       </c>
       <c r="F80" t="n">
-        <v>178</v>
+        <v>14.0917</v>
       </c>
       <c r="G80" t="n">
-        <v>36.39033333333332</v>
+        <v>36.37283333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3519,25 +3217,25 @@
         <v>36.95</v>
       </c>
       <c r="C81" t="n">
-        <v>36.8</v>
+        <v>36.95</v>
       </c>
       <c r="D81" t="n">
         <v>36.95</v>
       </c>
       <c r="E81" t="n">
-        <v>36.8</v>
+        <v>36.95</v>
       </c>
       <c r="F81" t="n">
-        <v>3170000</v>
+        <v>178</v>
       </c>
       <c r="G81" t="n">
-        <v>36.40783333333332</v>
+        <v>36.39033333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3551,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>37.08</v>
+        <v>36.95</v>
       </c>
       <c r="C82" t="n">
-        <v>37.25</v>
+        <v>36.8</v>
       </c>
       <c r="D82" t="n">
-        <v>37.25</v>
+        <v>36.95</v>
       </c>
       <c r="E82" t="n">
         <v>36.8</v>
       </c>
       <c r="F82" t="n">
-        <v>3170123.4753</v>
+        <v>3170000</v>
       </c>
       <c r="G82" t="n">
-        <v>36.43283333333332</v>
+        <v>36.40783333333332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3586,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>37.24</v>
+        <v>37.08</v>
       </c>
       <c r="C83" t="n">
-        <v>37.24</v>
+        <v>37.25</v>
       </c>
       <c r="D83" t="n">
-        <v>37.24</v>
+        <v>37.25</v>
       </c>
       <c r="E83" t="n">
-        <v>37.24</v>
+        <v>36.8</v>
       </c>
       <c r="F83" t="n">
-        <v>5153.2567</v>
+        <v>3170123.4753</v>
       </c>
       <c r="G83" t="n">
-        <v>36.45883333333332</v>
+        <v>36.43283333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3621,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>37.04</v>
+        <v>37.24</v>
       </c>
       <c r="C84" t="n">
-        <v>37.04</v>
+        <v>37.24</v>
       </c>
       <c r="D84" t="n">
-        <v>37.04</v>
+        <v>37.24</v>
       </c>
       <c r="E84" t="n">
-        <v>37.04</v>
+        <v>37.24</v>
       </c>
       <c r="F84" t="n">
-        <v>53.9957</v>
+        <v>5153.2567</v>
       </c>
       <c r="G84" t="n">
-        <v>36.47749999999998</v>
+        <v>36.45883333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3656,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>36.9</v>
+        <v>37.04</v>
       </c>
       <c r="C85" t="n">
-        <v>37.23</v>
+        <v>37.04</v>
       </c>
       <c r="D85" t="n">
-        <v>37.23</v>
+        <v>37.04</v>
       </c>
       <c r="E85" t="n">
-        <v>36.65</v>
+        <v>37.04</v>
       </c>
       <c r="F85" t="n">
-        <v>28000</v>
+        <v>53.9957</v>
       </c>
       <c r="G85" t="n">
-        <v>36.50183333333332</v>
+        <v>36.47749999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3691,7 +3389,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="C86" t="n">
         <v>37.23</v>
@@ -3700,19 +3398,19 @@
         <v>37.23</v>
       </c>
       <c r="E86" t="n">
-        <v>36.12</v>
+        <v>36.65</v>
       </c>
       <c r="F86" t="n">
-        <v>78000</v>
+        <v>28000</v>
       </c>
       <c r="G86" t="n">
-        <v>36.52616666666665</v>
+        <v>36.50183333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3726,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="C87" t="n">
-        <v>36.6</v>
+        <v>37.23</v>
       </c>
       <c r="D87" t="n">
-        <v>36.6</v>
+        <v>37.23</v>
       </c>
       <c r="E87" t="n">
-        <v>36.6</v>
+        <v>36.12</v>
       </c>
       <c r="F87" t="n">
-        <v>54.6448</v>
+        <v>78000</v>
       </c>
       <c r="G87" t="n">
-        <v>36.53349999999999</v>
+        <v>36.52616666666665</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3761,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>36.46</v>
+        <v>36.6</v>
       </c>
       <c r="C88" t="n">
-        <v>37.22</v>
+        <v>36.6</v>
       </c>
       <c r="D88" t="n">
-        <v>37.22</v>
+        <v>36.6</v>
       </c>
       <c r="E88" t="n">
-        <v>36.12</v>
+        <v>36.6</v>
       </c>
       <c r="F88" t="n">
-        <v>46000</v>
+        <v>54.6448</v>
       </c>
       <c r="G88" t="n">
-        <v>36.54566666666665</v>
+        <v>36.53349999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3796,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>36.61</v>
+        <v>36.46</v>
       </c>
       <c r="C89" t="n">
-        <v>36.61</v>
+        <v>37.22</v>
       </c>
       <c r="D89" t="n">
-        <v>36.61</v>
+        <v>37.22</v>
       </c>
       <c r="E89" t="n">
-        <v>36.61</v>
+        <v>36.12</v>
       </c>
       <c r="F89" t="n">
-        <v>60.5061</v>
+        <v>46000</v>
       </c>
       <c r="G89" t="n">
-        <v>36.55733333333333</v>
+        <v>36.54566666666665</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3834,19 +3532,19 @@
         <v>36.61</v>
       </c>
       <c r="C90" t="n">
-        <v>37.1</v>
+        <v>36.61</v>
       </c>
       <c r="D90" t="n">
-        <v>37.19</v>
+        <v>36.61</v>
       </c>
       <c r="E90" t="n">
         <v>36.61</v>
       </c>
       <c r="F90" t="n">
-        <v>23927.4641</v>
+        <v>60.5061</v>
       </c>
       <c r="G90" t="n">
-        <v>36.56916666666666</v>
+        <v>36.55733333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3866,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>36.95</v>
+        <v>36.61</v>
       </c>
       <c r="C91" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="D91" t="n">
-        <v>36.95</v>
+        <v>37.19</v>
       </c>
       <c r="E91" t="n">
-        <v>36.9</v>
+        <v>36.61</v>
       </c>
       <c r="F91" t="n">
-        <v>17417.9045</v>
+        <v>23927.4641</v>
       </c>
       <c r="G91" t="n">
-        <v>36.576</v>
+        <v>36.56916666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3901,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>36.82</v>
+        <v>36.95</v>
       </c>
       <c r="C92" t="n">
         <v>36.9</v>
       </c>
       <c r="D92" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="E92" t="n">
         <v>36.9</v>
       </c>
-      <c r="E92" t="n">
-        <v>36.82</v>
-      </c>
       <c r="F92" t="n">
-        <v>2573.8256</v>
+        <v>17417.9045</v>
       </c>
       <c r="G92" t="n">
-        <v>36.5835</v>
+        <v>36.576</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3939,19 +3637,19 @@
         <v>36.82</v>
       </c>
       <c r="C93" t="n">
-        <v>36.82</v>
+        <v>36.9</v>
       </c>
       <c r="D93" t="n">
-        <v>36.82</v>
+        <v>36.9</v>
       </c>
       <c r="E93" t="n">
         <v>36.82</v>
       </c>
       <c r="F93" t="n">
-        <v>3467.6718</v>
+        <v>2573.8256</v>
       </c>
       <c r="G93" t="n">
-        <v>36.58966666666667</v>
+        <v>36.5835</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3971,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>36.77</v>
+        <v>36.82</v>
       </c>
       <c r="C94" t="n">
-        <v>36.5</v>
+        <v>36.82</v>
       </c>
       <c r="D94" t="n">
-        <v>36.77</v>
+        <v>36.82</v>
       </c>
       <c r="E94" t="n">
-        <v>36.5</v>
+        <v>36.82</v>
       </c>
       <c r="F94" t="n">
-        <v>23563.8376</v>
+        <v>3467.6718</v>
       </c>
       <c r="G94" t="n">
-        <v>36.59033333333334</v>
+        <v>36.58966666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4006,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>36.69</v>
+        <v>36.77</v>
       </c>
       <c r="C95" t="n">
-        <v>36.69</v>
+        <v>36.5</v>
       </c>
       <c r="D95" t="n">
-        <v>36.69</v>
+        <v>36.77</v>
       </c>
       <c r="E95" t="n">
-        <v>36.69</v>
+        <v>36.5</v>
       </c>
       <c r="F95" t="n">
-        <v>27.2554</v>
+        <v>23563.8376</v>
       </c>
       <c r="G95" t="n">
-        <v>36.59416666666667</v>
+        <v>36.59033333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4041,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>36.78</v>
+        <v>36.69</v>
       </c>
       <c r="C96" t="n">
-        <v>36.89</v>
+        <v>36.69</v>
       </c>
       <c r="D96" t="n">
-        <v>36.89</v>
+        <v>36.69</v>
       </c>
       <c r="E96" t="n">
-        <v>36.78</v>
+        <v>36.69</v>
       </c>
       <c r="F96" t="n">
-        <v>62.3476</v>
+        <v>27.2554</v>
       </c>
       <c r="G96" t="n">
-        <v>36.60133333333334</v>
+        <v>36.59416666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4076,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>36.6</v>
+        <v>36.78</v>
       </c>
       <c r="C97" t="n">
-        <v>36.36</v>
+        <v>36.89</v>
       </c>
       <c r="D97" t="n">
-        <v>36.6</v>
+        <v>36.89</v>
       </c>
       <c r="E97" t="n">
-        <v>36.07</v>
+        <v>36.78</v>
       </c>
       <c r="F97" t="n">
-        <v>13681.3691</v>
+        <v>62.3476</v>
       </c>
       <c r="G97" t="n">
-        <v>36.61050000000001</v>
+        <v>36.60133333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4111,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="C98" t="n">
-        <v>36.3</v>
+        <v>36.36</v>
       </c>
       <c r="D98" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="E98" t="n">
-        <v>36.2</v>
+        <v>36.07</v>
       </c>
       <c r="F98" t="n">
-        <v>4551.2799</v>
+        <v>13681.3691</v>
       </c>
       <c r="G98" t="n">
-        <v>36.60800000000002</v>
+        <v>36.61050000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4146,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="C99" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="D99" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="E99" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="F99" t="n">
-        <v>60.8407</v>
+        <v>4551.2799</v>
       </c>
       <c r="G99" t="n">
-        <v>36.60883333333335</v>
+        <v>36.60800000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4184,19 +3882,19 @@
         <v>36.5</v>
       </c>
       <c r="C100" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="D100" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E100" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="F100" t="n">
-        <v>2273.9288</v>
+        <v>60.8407</v>
       </c>
       <c r="G100" t="n">
-        <v>36.62550000000002</v>
+        <v>36.60883333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4216,7 +3914,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="C101" t="n">
         <v>36.8</v>
@@ -4225,13 +3923,13 @@
         <v>36.8</v>
       </c>
       <c r="E101" t="n">
-        <v>36.8</v>
+        <v>36.2</v>
       </c>
       <c r="F101" t="n">
-        <v>135.8696</v>
+        <v>2273.9288</v>
       </c>
       <c r="G101" t="n">
-        <v>36.64716666666668</v>
+        <v>36.62550000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4251,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>36.59</v>
+        <v>36.8</v>
       </c>
       <c r="C102" t="n">
-        <v>36.94</v>
+        <v>36.8</v>
       </c>
       <c r="D102" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="E102" t="n">
-        <v>36.07</v>
+        <v>36.8</v>
       </c>
       <c r="F102" t="n">
-        <v>79235.71999864865</v>
+        <v>135.8696</v>
       </c>
       <c r="G102" t="n">
-        <v>36.65283333333335</v>
+        <v>36.64716666666668</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4286,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>36.98</v>
+        <v>36.59</v>
       </c>
       <c r="C103" t="n">
-        <v>36.98</v>
+        <v>36.94</v>
       </c>
       <c r="D103" t="n">
-        <v>36.98</v>
+        <v>37</v>
       </c>
       <c r="E103" t="n">
-        <v>36.98</v>
+        <v>36.07</v>
       </c>
       <c r="F103" t="n">
-        <v>13.5209</v>
+        <v>79235.71999864865</v>
       </c>
       <c r="G103" t="n">
-        <v>36.65916666666669</v>
+        <v>36.65283333333335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4321,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>36.76</v>
+        <v>36.98</v>
       </c>
       <c r="C104" t="n">
-        <v>36.11</v>
+        <v>36.98</v>
       </c>
       <c r="D104" t="n">
-        <v>36.76</v>
+        <v>36.98</v>
       </c>
       <c r="E104" t="n">
-        <v>36.11</v>
+        <v>36.98</v>
       </c>
       <c r="F104" t="n">
-        <v>17207.7007</v>
+        <v>13.5209</v>
       </c>
       <c r="G104" t="n">
-        <v>36.65100000000003</v>
+        <v>36.65916666666669</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4356,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>36.59</v>
+        <v>36.76</v>
       </c>
       <c r="C105" t="n">
-        <v>36.97</v>
+        <v>36.11</v>
       </c>
       <c r="D105" t="n">
-        <v>36.97</v>
+        <v>36.76</v>
       </c>
       <c r="E105" t="n">
-        <v>36.2</v>
+        <v>36.11</v>
       </c>
       <c r="F105" t="n">
-        <v>2154.658</v>
+        <v>17207.7007</v>
       </c>
       <c r="G105" t="n">
-        <v>36.66150000000003</v>
+        <v>36.65100000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4394,19 +4092,19 @@
         <v>36.59</v>
       </c>
       <c r="C106" t="n">
-        <v>36.79</v>
+        <v>36.97</v>
       </c>
       <c r="D106" t="n">
-        <v>36.79</v>
+        <v>36.97</v>
       </c>
       <c r="E106" t="n">
-        <v>36.16</v>
+        <v>36.2</v>
       </c>
       <c r="F106" t="n">
-        <v>30061</v>
+        <v>2154.658</v>
       </c>
       <c r="G106" t="n">
-        <v>36.66466666666669</v>
+        <v>36.66150000000003</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4429,19 +4127,19 @@
         <v>36.59</v>
       </c>
       <c r="C107" t="n">
-        <v>36.59</v>
+        <v>36.79</v>
       </c>
       <c r="D107" t="n">
-        <v>36.59</v>
+        <v>36.79</v>
       </c>
       <c r="E107" t="n">
-        <v>36.59</v>
+        <v>36.16</v>
       </c>
       <c r="F107" t="n">
-        <v>54.6597</v>
+        <v>30061</v>
       </c>
       <c r="G107" t="n">
-        <v>36.66450000000003</v>
+        <v>36.66466666666669</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4461,7 +4159,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>36.46</v>
+        <v>36.59</v>
       </c>
       <c r="C108" t="n">
         <v>36.59</v>
@@ -4470,13 +4168,13 @@
         <v>36.59</v>
       </c>
       <c r="E108" t="n">
-        <v>36.08</v>
+        <v>36.59</v>
       </c>
       <c r="F108" t="n">
-        <v>9024.6669</v>
+        <v>54.6597</v>
       </c>
       <c r="G108" t="n">
-        <v>36.66433333333337</v>
+        <v>36.66450000000003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4496,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>36.36</v>
+        <v>36.46</v>
       </c>
       <c r="C109" t="n">
-        <v>36.36</v>
+        <v>36.59</v>
       </c>
       <c r="D109" t="n">
-        <v>36.36</v>
+        <v>36.59</v>
       </c>
       <c r="E109" t="n">
-        <v>36.36</v>
+        <v>36.08</v>
       </c>
       <c r="F109" t="n">
-        <v>15.9156</v>
+        <v>9024.6669</v>
       </c>
       <c r="G109" t="n">
-        <v>36.6646666666667</v>
+        <v>36.66433333333337</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4543,10 +4241,10 @@
         <v>36.36</v>
       </c>
       <c r="F110" t="n">
-        <v>39.0899</v>
+        <v>15.9156</v>
       </c>
       <c r="G110" t="n">
-        <v>36.66100000000004</v>
+        <v>36.6646666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4566,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>36.16</v>
+        <v>36.36</v>
       </c>
       <c r="C111" t="n">
-        <v>36.08</v>
+        <v>36.36</v>
       </c>
       <c r="D111" t="n">
-        <v>36.16</v>
+        <v>36.36</v>
       </c>
       <c r="E111" t="n">
-        <v>36.08</v>
+        <v>36.36</v>
       </c>
       <c r="F111" t="n">
-        <v>2973.2769</v>
+        <v>39.0899</v>
       </c>
       <c r="G111" t="n">
-        <v>36.6526666666667</v>
+        <v>36.66100000000004</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4601,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>36.02</v>
+        <v>36.16</v>
       </c>
       <c r="C112" t="n">
-        <v>35.84</v>
+        <v>36.08</v>
       </c>
       <c r="D112" t="n">
-        <v>36.02</v>
+        <v>36.16</v>
       </c>
       <c r="E112" t="n">
-        <v>35.84</v>
+        <v>36.08</v>
       </c>
       <c r="F112" t="n">
-        <v>5307.5426</v>
+        <v>2973.2769</v>
       </c>
       <c r="G112" t="n">
-        <v>36.64433333333337</v>
+        <v>36.6526666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4636,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>35.92</v>
+        <v>36.02</v>
       </c>
       <c r="C113" t="n">
-        <v>35.87</v>
+        <v>35.84</v>
       </c>
       <c r="D113" t="n">
-        <v>35.92</v>
+        <v>36.02</v>
       </c>
       <c r="E113" t="n">
-        <v>35.87</v>
+        <v>35.84</v>
       </c>
       <c r="F113" t="n">
-        <v>516.2248</v>
+        <v>5307.5426</v>
       </c>
       <c r="G113" t="n">
-        <v>36.63650000000003</v>
+        <v>36.64433333333337</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4671,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>36.06</v>
+        <v>35.92</v>
       </c>
       <c r="C114" t="n">
-        <v>36.29</v>
+        <v>35.87</v>
       </c>
       <c r="D114" t="n">
-        <v>36.39</v>
+        <v>35.92</v>
       </c>
       <c r="E114" t="n">
-        <v>36.06</v>
+        <v>35.87</v>
       </c>
       <c r="F114" t="n">
-        <v>556.9253</v>
+        <v>516.2248</v>
       </c>
       <c r="G114" t="n">
-        <v>36.6326666666667</v>
+        <v>36.63650000000003</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4706,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>36.39</v>
+        <v>36.06</v>
       </c>
       <c r="C115" t="n">
-        <v>36.39</v>
+        <v>36.29</v>
       </c>
       <c r="D115" t="n">
         <v>36.39</v>
       </c>
       <c r="E115" t="n">
-        <v>36.39</v>
+        <v>36.06</v>
       </c>
       <c r="F115" t="n">
-        <v>13.816</v>
+        <v>556.9253</v>
       </c>
       <c r="G115" t="n">
-        <v>36.63350000000003</v>
+        <v>36.6326666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4744,19 +4442,19 @@
         <v>36.39</v>
       </c>
       <c r="C116" t="n">
-        <v>36.92</v>
+        <v>36.39</v>
       </c>
       <c r="D116" t="n">
-        <v>36.92</v>
+        <v>36.39</v>
       </c>
       <c r="E116" t="n">
         <v>36.39</v>
       </c>
       <c r="F116" t="n">
-        <v>48227.5167</v>
+        <v>13.816</v>
       </c>
       <c r="G116" t="n">
-        <v>36.64316666666669</v>
+        <v>36.63350000000003</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4776,7 +4474,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>36.92</v>
+        <v>36.39</v>
       </c>
       <c r="C117" t="n">
         <v>36.92</v>
@@ -4785,13 +4483,13 @@
         <v>36.92</v>
       </c>
       <c r="E117" t="n">
-        <v>36.92</v>
+        <v>36.39</v>
       </c>
       <c r="F117" t="n">
-        <v>81.2568</v>
+        <v>48227.5167</v>
       </c>
       <c r="G117" t="n">
-        <v>36.65283333333335</v>
+        <v>36.64316666666669</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4823,10 +4521,10 @@
         <v>36.92</v>
       </c>
       <c r="F118" t="n">
-        <v>30332.71939328277</v>
+        <v>81.2568</v>
       </c>
       <c r="G118" t="n">
-        <v>36.66250000000002</v>
+        <v>36.65283333333335</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4846,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>36.58</v>
+        <v>36.92</v>
       </c>
       <c r="C119" t="n">
-        <v>36.58</v>
+        <v>36.92</v>
       </c>
       <c r="D119" t="n">
-        <v>36.58</v>
+        <v>36.92</v>
       </c>
       <c r="E119" t="n">
-        <v>36.58</v>
+        <v>36.92</v>
       </c>
       <c r="F119" t="n">
-        <v>15</v>
+        <v>30332.71939328277</v>
       </c>
       <c r="G119" t="n">
-        <v>36.66650000000002</v>
+        <v>36.66250000000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4881,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>36.9</v>
+        <v>36.58</v>
       </c>
       <c r="C120" t="n">
-        <v>36.91</v>
+        <v>36.58</v>
       </c>
       <c r="D120" t="n">
-        <v>36.91</v>
+        <v>36.58</v>
       </c>
       <c r="E120" t="n">
-        <v>36.9</v>
+        <v>36.58</v>
       </c>
       <c r="F120" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G120" t="n">
-        <v>36.67600000000002</v>
+        <v>36.66650000000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4916,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>36.58</v>
+        <v>36.9</v>
       </c>
       <c r="C121" t="n">
-        <v>36.58</v>
+        <v>36.91</v>
       </c>
       <c r="D121" t="n">
-        <v>36.58</v>
+        <v>36.91</v>
       </c>
       <c r="E121" t="n">
-        <v>36.58</v>
+        <v>36.9</v>
       </c>
       <c r="F121" t="n">
-        <v>39.6747</v>
+        <v>16</v>
       </c>
       <c r="G121" t="n">
-        <v>36.67766666666668</v>
+        <v>36.67600000000002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4951,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>36.45</v>
+        <v>36.58</v>
       </c>
       <c r="C122" t="n">
-        <v>36.4</v>
+        <v>36.58</v>
       </c>
       <c r="D122" t="n">
-        <v>36.45</v>
+        <v>36.58</v>
       </c>
       <c r="E122" t="n">
-        <v>36.4</v>
+        <v>36.58</v>
       </c>
       <c r="F122" t="n">
-        <v>33285.37391947874</v>
+        <v>39.6747</v>
       </c>
       <c r="G122" t="n">
-        <v>36.67866666666668</v>
+        <v>36.67766666666668</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4986,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>36.35</v>
+        <v>36.45</v>
       </c>
       <c r="C123" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D123" t="n">
-        <v>36.35</v>
+        <v>36.45</v>
       </c>
       <c r="E123" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F123" t="n">
-        <v>30332.7193</v>
+        <v>33285.37391947874</v>
       </c>
       <c r="G123" t="n">
-        <v>36.67600000000002</v>
+        <v>36.67866666666668</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5021,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>36.29</v>
+        <v>36.35</v>
       </c>
       <c r="C124" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="D124" t="n">
-        <v>36.29</v>
+        <v>36.35</v>
       </c>
       <c r="E124" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="F124" t="n">
-        <v>2108.7387</v>
+        <v>30332.7193</v>
       </c>
       <c r="G124" t="n">
-        <v>36.67100000000001</v>
+        <v>36.67600000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5056,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>36.1</v>
+        <v>36.29</v>
       </c>
       <c r="C125" t="n">
         <v>36.1</v>
       </c>
       <c r="D125" t="n">
-        <v>36.1</v>
+        <v>36.29</v>
       </c>
       <c r="E125" t="n">
         <v>36.1</v>
       </c>
       <c r="F125" t="n">
-        <v>400</v>
+        <v>2108.7387</v>
       </c>
       <c r="G125" t="n">
-        <v>36.66600000000001</v>
+        <v>36.67100000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5091,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>36.11</v>
+        <v>36.1</v>
       </c>
       <c r="C126" t="n">
-        <v>36.68</v>
+        <v>36.1</v>
       </c>
       <c r="D126" t="n">
-        <v>36.68</v>
+        <v>36.1</v>
       </c>
       <c r="E126" t="n">
-        <v>36.11</v>
+        <v>36.1</v>
       </c>
       <c r="F126" t="n">
-        <v>2175.2796</v>
+        <v>400</v>
       </c>
       <c r="G126" t="n">
-        <v>36.6745</v>
+        <v>36.66600000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5126,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>36.15</v>
+        <v>36.11</v>
       </c>
       <c r="C127" t="n">
-        <v>36.88</v>
+        <v>36.68</v>
       </c>
       <c r="D127" t="n">
-        <v>36.88</v>
+        <v>36.68</v>
       </c>
       <c r="E127" t="n">
-        <v>36.1</v>
+        <v>36.11</v>
       </c>
       <c r="F127" t="n">
-        <v>5800062.7045</v>
+        <v>2175.2796</v>
       </c>
       <c r="G127" t="n">
-        <v>36.6825</v>
+        <v>36.6745</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5161,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>36.31</v>
+        <v>36.15</v>
       </c>
       <c r="C128" t="n">
-        <v>36.79</v>
+        <v>36.88</v>
       </c>
       <c r="D128" t="n">
-        <v>36.8</v>
+        <v>36.88</v>
       </c>
       <c r="E128" t="n">
-        <v>36.21</v>
+        <v>36.1</v>
       </c>
       <c r="F128" t="n">
-        <v>32218.9524</v>
+        <v>5800062.7045</v>
       </c>
       <c r="G128" t="n">
-        <v>36.689</v>
+        <v>36.6825</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5196,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>36.58</v>
+        <v>36.31</v>
       </c>
       <c r="C129" t="n">
-        <v>36.34</v>
+        <v>36.79</v>
       </c>
       <c r="D129" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E129" t="n">
-        <v>36.34</v>
+        <v>36.21</v>
       </c>
       <c r="F129" t="n">
-        <v>16902.4138</v>
+        <v>32218.9524</v>
       </c>
       <c r="G129" t="n">
-        <v>36.68650000000001</v>
+        <v>36.689</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5231,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>36.48</v>
+        <v>36.58</v>
       </c>
       <c r="C130" t="n">
-        <v>36.49</v>
+        <v>36.34</v>
       </c>
       <c r="D130" t="n">
-        <v>36.49</v>
+        <v>36.7</v>
       </c>
       <c r="E130" t="n">
-        <v>36.48</v>
+        <v>36.34</v>
       </c>
       <c r="F130" t="n">
-        <v>61</v>
+        <v>16902.4138</v>
       </c>
       <c r="G130" t="n">
-        <v>36.69183333333334</v>
+        <v>36.68650000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5266,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>36.31</v>
+        <v>36.48</v>
       </c>
       <c r="C131" t="n">
-        <v>36.31</v>
+        <v>36.49</v>
       </c>
       <c r="D131" t="n">
-        <v>36.31</v>
+        <v>36.49</v>
       </c>
       <c r="E131" t="n">
-        <v>36.31</v>
+        <v>36.48</v>
       </c>
       <c r="F131" t="n">
-        <v>55.0812</v>
+        <v>61</v>
       </c>
       <c r="G131" t="n">
-        <v>36.69116666666667</v>
+        <v>36.69183333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5301,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>36.15</v>
+        <v>36.31</v>
       </c>
       <c r="C132" t="n">
-        <v>36.2</v>
+        <v>36.31</v>
       </c>
       <c r="D132" t="n">
-        <v>36.2</v>
+        <v>36.31</v>
       </c>
       <c r="E132" t="n">
-        <v>36</v>
+        <v>36.31</v>
       </c>
       <c r="F132" t="n">
-        <v>1810.6543</v>
+        <v>55.0812</v>
       </c>
       <c r="G132" t="n">
-        <v>36.68866666666667</v>
+        <v>36.69116666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5336,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>36.01</v>
+        <v>36.15</v>
       </c>
       <c r="C133" t="n">
-        <v>36.19</v>
+        <v>36.2</v>
       </c>
       <c r="D133" t="n">
-        <v>36.19</v>
+        <v>36.2</v>
       </c>
       <c r="E133" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="F133" t="n">
-        <v>2987.828</v>
+        <v>1810.6543</v>
       </c>
       <c r="G133" t="n">
-        <v>36.68516666666667</v>
+        <v>36.68866666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5371,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>36.03</v>
+        <v>36.01</v>
       </c>
       <c r="C134" t="n">
-        <v>35.9</v>
+        <v>36.19</v>
       </c>
       <c r="D134" t="n">
-        <v>36.27</v>
+        <v>36.19</v>
       </c>
       <c r="E134" t="n">
         <v>35.9</v>
       </c>
       <c r="F134" t="n">
-        <v>30208.6722</v>
+        <v>2987.828</v>
       </c>
       <c r="G134" t="n">
-        <v>36.67683333333333</v>
+        <v>36.68516666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5406,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>36.03</v>
+      </c>
+      <c r="C135" t="n">
         <v>35.9</v>
       </c>
-      <c r="C135" t="n">
-        <v>36.17</v>
-      </c>
       <c r="D135" t="n">
-        <v>36.17</v>
+        <v>36.27</v>
       </c>
       <c r="E135" t="n">
-        <v>35.87</v>
+        <v>35.9</v>
       </c>
       <c r="F135" t="n">
-        <v>1875.9173</v>
+        <v>30208.6722</v>
       </c>
       <c r="G135" t="n">
-        <v>36.65833333333333</v>
+        <v>36.67683333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5441,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>35.87</v>
+        <v>35.9</v>
       </c>
       <c r="C136" t="n">
-        <v>35.87</v>
+        <v>36.17</v>
       </c>
       <c r="D136" t="n">
-        <v>35.87</v>
+        <v>36.17</v>
       </c>
       <c r="E136" t="n">
         <v>35.87</v>
       </c>
       <c r="F136" t="n">
-        <v>14000</v>
+        <v>1875.9173</v>
       </c>
       <c r="G136" t="n">
-        <v>36.63533333333333</v>
+        <v>36.65833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5476,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>36</v>
+        <v>35.87</v>
       </c>
       <c r="C137" t="n">
-        <v>36</v>
+        <v>35.87</v>
       </c>
       <c r="D137" t="n">
-        <v>36</v>
+        <v>35.87</v>
       </c>
       <c r="E137" t="n">
-        <v>36</v>
+        <v>35.87</v>
       </c>
       <c r="F137" t="n">
-        <v>38432.3136</v>
+        <v>14000</v>
       </c>
       <c r="G137" t="n">
-        <v>36.6145</v>
+        <v>36.63533333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5511,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>36.18</v>
+        <v>36</v>
       </c>
       <c r="C138" t="n">
-        <v>36.69</v>
+        <v>36</v>
       </c>
       <c r="D138" t="n">
-        <v>36.69</v>
+        <v>36</v>
       </c>
       <c r="E138" t="n">
-        <v>36.18</v>
+        <v>36</v>
       </c>
       <c r="F138" t="n">
-        <v>127.2313</v>
+        <v>38432.3136</v>
       </c>
       <c r="G138" t="n">
-        <v>36.60516666666667</v>
+        <v>36.6145</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5546,7 +5244,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>36.47</v>
+        <v>36.18</v>
       </c>
       <c r="C139" t="n">
         <v>36.69</v>
@@ -5555,13 +5253,13 @@
         <v>36.69</v>
       </c>
       <c r="E139" t="n">
-        <v>36.47</v>
+        <v>36.18</v>
       </c>
       <c r="F139" t="n">
-        <v>63.0656</v>
+        <v>127.2313</v>
       </c>
       <c r="G139" t="n">
-        <v>36.597</v>
+        <v>36.60516666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5581,7 +5279,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>36.6</v>
+        <v>36.47</v>
       </c>
       <c r="C140" t="n">
         <v>36.69</v>
@@ -5590,13 +5288,13 @@
         <v>36.69</v>
       </c>
       <c r="E140" t="n">
-        <v>36.6</v>
+        <v>36.47</v>
       </c>
       <c r="F140" t="n">
-        <v>62.8416</v>
+        <v>63.0656</v>
       </c>
       <c r="G140" t="n">
-        <v>36.59266666666667</v>
+        <v>36.597</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5616,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>36.46</v>
+        <v>36.6</v>
       </c>
       <c r="C141" t="n">
-        <v>36.45</v>
+        <v>36.69</v>
       </c>
       <c r="D141" t="n">
-        <v>36.46</v>
+        <v>36.69</v>
       </c>
       <c r="E141" t="n">
-        <v>36.45</v>
+        <v>36.6</v>
       </c>
       <c r="F141" t="n">
-        <v>438.8371</v>
+        <v>62.8416</v>
       </c>
       <c r="G141" t="n">
-        <v>36.58683333333333</v>
+        <v>36.59266666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5651,22 +5349,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>36.59</v>
+        <v>36.46</v>
       </c>
       <c r="C142" t="n">
-        <v>36.69</v>
+        <v>36.45</v>
       </c>
       <c r="D142" t="n">
-        <v>36.69</v>
+        <v>36.46</v>
       </c>
       <c r="E142" t="n">
-        <v>36.59</v>
+        <v>36.45</v>
       </c>
       <c r="F142" t="n">
-        <v>31361.0095</v>
+        <v>438.8371</v>
       </c>
       <c r="G142" t="n">
-        <v>36.5775</v>
+        <v>36.58683333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5686,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>36.46</v>
+        <v>36.59</v>
       </c>
       <c r="C143" t="n">
-        <v>36.46</v>
+        <v>36.69</v>
       </c>
       <c r="D143" t="n">
-        <v>36.46</v>
+        <v>36.69</v>
       </c>
       <c r="E143" t="n">
-        <v>36.46</v>
+        <v>36.59</v>
       </c>
       <c r="F143" t="n">
-        <v>54.8546</v>
+        <v>31361.0095</v>
       </c>
       <c r="G143" t="n">
-        <v>36.5645</v>
+        <v>36.5775</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5721,22 +5419,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>36.51</v>
+        <v>36.46</v>
       </c>
       <c r="C144" t="n">
-        <v>35.88</v>
+        <v>36.46</v>
       </c>
       <c r="D144" t="n">
-        <v>36.59</v>
+        <v>36.46</v>
       </c>
       <c r="E144" t="n">
-        <v>35.88</v>
+        <v>36.46</v>
       </c>
       <c r="F144" t="n">
-        <v>108814.1806</v>
+        <v>54.8546</v>
       </c>
       <c r="G144" t="n">
-        <v>36.54516666666667</v>
+        <v>36.5645</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5756,22 +5454,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>36.3</v>
+        <v>36.51</v>
       </c>
       <c r="C145" t="n">
-        <v>36.49</v>
+        <v>35.88</v>
       </c>
       <c r="D145" t="n">
-        <v>36.49</v>
+        <v>36.59</v>
       </c>
       <c r="E145" t="n">
-        <v>36.2</v>
+        <v>35.88</v>
       </c>
       <c r="F145" t="n">
-        <v>2612.6198</v>
+        <v>108814.1806</v>
       </c>
       <c r="G145" t="n">
-        <v>36.53283333333334</v>
+        <v>36.54516666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5791,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>36.29</v>
+        <v>36.3</v>
       </c>
       <c r="C146" t="n">
-        <v>35.88</v>
+        <v>36.49</v>
       </c>
       <c r="D146" t="n">
-        <v>36.29</v>
+        <v>36.49</v>
       </c>
       <c r="E146" t="n">
-        <v>35.88</v>
+        <v>36.2</v>
       </c>
       <c r="F146" t="n">
-        <v>5712.7146</v>
+        <v>2612.6198</v>
       </c>
       <c r="G146" t="n">
-        <v>36.51033333333334</v>
+        <v>36.53283333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5826,22 +5524,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>36.47</v>
+        <v>36.29</v>
       </c>
       <c r="C147" t="n">
-        <v>36.49</v>
+        <v>35.88</v>
       </c>
       <c r="D147" t="n">
-        <v>36.49</v>
+        <v>36.29</v>
       </c>
       <c r="E147" t="n">
-        <v>36.47</v>
+        <v>35.88</v>
       </c>
       <c r="F147" t="n">
-        <v>63.0656</v>
+        <v>5712.7146</v>
       </c>
       <c r="G147" t="n">
-        <v>36.50850000000001</v>
+        <v>36.51033333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5864,19 +5562,19 @@
         <v>36.47</v>
       </c>
       <c r="C148" t="n">
-        <v>36.46</v>
+        <v>36.49</v>
       </c>
       <c r="D148" t="n">
+        <v>36.49</v>
+      </c>
+      <c r="E148" t="n">
         <v>36.47</v>
       </c>
-      <c r="E148" t="n">
-        <v>36.29</v>
-      </c>
       <c r="F148" t="n">
-        <v>42876.2115</v>
+        <v>63.0656</v>
       </c>
       <c r="G148" t="n">
-        <v>36.49583333333334</v>
+        <v>36.50850000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5896,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>36.46</v>
+        <v>36.47</v>
       </c>
       <c r="C149" t="n">
         <v>36.46</v>
       </c>
       <c r="D149" t="n">
-        <v>36.46</v>
+        <v>36.47</v>
       </c>
       <c r="E149" t="n">
-        <v>36.46</v>
+        <v>36.29</v>
       </c>
       <c r="F149" t="n">
-        <v>88</v>
+        <v>42876.2115</v>
       </c>
       <c r="G149" t="n">
-        <v>36.49333333333334</v>
+        <v>36.49583333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5943,10 +5641,10 @@
         <v>36.46</v>
       </c>
       <c r="F150" t="n">
-        <v>3435.0491</v>
+        <v>88</v>
       </c>
       <c r="G150" t="n">
-        <v>36.48266666666667</v>
+        <v>36.49333333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5966,22 +5664,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>36.29</v>
+        <v>36.46</v>
       </c>
       <c r="C151" t="n">
-        <v>36.29</v>
+        <v>36.46</v>
       </c>
       <c r="D151" t="n">
-        <v>36.29</v>
+        <v>36.46</v>
       </c>
       <c r="E151" t="n">
-        <v>36.29</v>
+        <v>36.46</v>
       </c>
       <c r="F151" t="n">
-        <v>1321.5665</v>
+        <v>3435.0491</v>
       </c>
       <c r="G151" t="n">
-        <v>36.4725</v>
+        <v>36.48266666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6001,22 +5699,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>36.46</v>
+        <v>36.29</v>
       </c>
       <c r="C152" t="n">
-        <v>36.46</v>
+        <v>36.29</v>
       </c>
       <c r="D152" t="n">
-        <v>36.46</v>
+        <v>36.29</v>
       </c>
       <c r="E152" t="n">
-        <v>36.46</v>
+        <v>36.29</v>
       </c>
       <c r="F152" t="n">
-        <v>2613.357</v>
+        <v>1321.5665</v>
       </c>
       <c r="G152" t="n">
-        <v>36.46516666666667</v>
+        <v>36.4725</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6048,10 +5746,10 @@
         <v>36.46</v>
       </c>
       <c r="F153" t="n">
-        <v>88</v>
+        <v>2613.357</v>
       </c>
       <c r="G153" t="n">
-        <v>36.45916666666667</v>
+        <v>36.46516666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6083,10 +5781,10 @@
         <v>36.46</v>
       </c>
       <c r="F154" t="n">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="G154" t="n">
-        <v>36.4585</v>
+        <v>36.45916666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6121,7 +5819,7 @@
         <v>154</v>
       </c>
       <c r="G155" t="n">
-        <v>36.45466666666667</v>
+        <v>36.4585</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6144,19 +5842,19 @@
         <v>36.46</v>
       </c>
       <c r="C156" t="n">
-        <v>36.29</v>
+        <v>36.46</v>
       </c>
       <c r="D156" t="n">
         <v>36.46</v>
       </c>
       <c r="E156" t="n">
-        <v>36.29</v>
+        <v>36.46</v>
       </c>
       <c r="F156" t="n">
-        <v>3588.3666</v>
+        <v>154</v>
       </c>
       <c r="G156" t="n">
-        <v>36.44466666666667</v>
+        <v>36.45466666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6176,22 +5874,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>36.29</v>
+        <v>36.46</v>
       </c>
       <c r="C157" t="n">
         <v>36.29</v>
       </c>
       <c r="D157" t="n">
-        <v>36.29</v>
+        <v>36.46</v>
       </c>
       <c r="E157" t="n">
         <v>36.29</v>
       </c>
       <c r="F157" t="n">
-        <v>303.37</v>
+        <v>3588.3666</v>
       </c>
       <c r="G157" t="n">
-        <v>36.4435</v>
+        <v>36.44466666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6223,10 +5921,10 @@
         <v>36.29</v>
       </c>
       <c r="F158" t="n">
-        <v>33859.6524</v>
+        <v>303.37</v>
       </c>
       <c r="G158" t="n">
-        <v>36.44333333333334</v>
+        <v>36.4435</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6249,19 +5947,19 @@
         <v>36.29</v>
       </c>
       <c r="C159" t="n">
-        <v>36.3</v>
+        <v>36.29</v>
       </c>
       <c r="D159" t="n">
-        <v>36.3</v>
+        <v>36.29</v>
       </c>
       <c r="E159" t="n">
         <v>36.29</v>
       </c>
       <c r="F159" t="n">
-        <v>110.69</v>
+        <v>33859.6524</v>
       </c>
       <c r="G159" t="n">
-        <v>36.44</v>
+        <v>36.44333333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6281,22 +5979,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>36.46</v>
+        <v>36.29</v>
       </c>
       <c r="C160" t="n">
         <v>36.3</v>
       </c>
       <c r="D160" t="n">
-        <v>36.46</v>
+        <v>36.3</v>
       </c>
       <c r="E160" t="n">
-        <v>36.3</v>
+        <v>36.29</v>
       </c>
       <c r="F160" t="n">
-        <v>8386.013800000001</v>
+        <v>110.69</v>
       </c>
       <c r="G160" t="n">
-        <v>36.43166666666666</v>
+        <v>36.44</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6319,19 +6017,19 @@
         <v>36.46</v>
       </c>
       <c r="C161" t="n">
-        <v>36.46</v>
+        <v>36.3</v>
       </c>
       <c r="D161" t="n">
         <v>36.46</v>
       </c>
       <c r="E161" t="n">
-        <v>36.46</v>
+        <v>36.3</v>
       </c>
       <c r="F161" t="n">
-        <v>244</v>
+        <v>8386.013800000001</v>
       </c>
       <c r="G161" t="n">
-        <v>36.426</v>
+        <v>36.43166666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6351,22 +6049,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>36.3</v>
+        <v>36.46</v>
       </c>
       <c r="C162" t="n">
-        <v>36.3</v>
+        <v>36.46</v>
       </c>
       <c r="D162" t="n">
-        <v>36.3</v>
+        <v>36.46</v>
       </c>
       <c r="E162" t="n">
-        <v>36.3</v>
+        <v>36.46</v>
       </c>
       <c r="F162" t="n">
-        <v>52.94</v>
+        <v>244</v>
       </c>
       <c r="G162" t="n">
-        <v>36.41533333333334</v>
+        <v>36.426</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6386,22 +6084,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>36.46</v>
+        <v>36.3</v>
       </c>
       <c r="C163" t="n">
-        <v>36.46</v>
+        <v>36.3</v>
       </c>
       <c r="D163" t="n">
-        <v>36.46</v>
+        <v>36.3</v>
       </c>
       <c r="E163" t="n">
-        <v>36.46</v>
+        <v>36.3</v>
       </c>
       <c r="F163" t="n">
-        <v>48.7234</v>
+        <v>52.94</v>
       </c>
       <c r="G163" t="n">
-        <v>36.40666666666667</v>
+        <v>36.41533333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6433,10 +6131,10 @@
         <v>36.46</v>
       </c>
       <c r="F164" t="n">
-        <v>62.7485</v>
+        <v>48.7234</v>
       </c>
       <c r="G164" t="n">
-        <v>36.4125</v>
+        <v>36.40666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6468,10 +6166,10 @@
         <v>36.46</v>
       </c>
       <c r="F165" t="n">
-        <v>11709.308</v>
+        <v>62.7485</v>
       </c>
       <c r="G165" t="n">
-        <v>36.404</v>
+        <v>36.4125</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6503,10 +6201,10 @@
         <v>36.46</v>
       </c>
       <c r="F166" t="n">
-        <v>8689.2348</v>
+        <v>11709.308</v>
       </c>
       <c r="G166" t="n">
-        <v>36.39850000000001</v>
+        <v>36.404</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6526,22 +6224,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>36.3</v>
+        <v>36.46</v>
       </c>
       <c r="C167" t="n">
-        <v>36.29</v>
+        <v>36.46</v>
       </c>
       <c r="D167" t="n">
-        <v>36.3</v>
+        <v>36.46</v>
       </c>
       <c r="E167" t="n">
-        <v>36.29</v>
+        <v>36.46</v>
       </c>
       <c r="F167" t="n">
-        <v>17388.4652</v>
+        <v>8689.2348</v>
       </c>
       <c r="G167" t="n">
-        <v>36.3935</v>
+        <v>36.39850000000001</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6561,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>36.47</v>
+        <v>36.3</v>
       </c>
       <c r="C168" t="n">
-        <v>36.6</v>
+        <v>36.29</v>
       </c>
       <c r="D168" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="E168" t="n">
-        <v>36.47</v>
+        <v>36.29</v>
       </c>
       <c r="F168" t="n">
-        <v>6480.434859453552</v>
+        <v>17388.4652</v>
       </c>
       <c r="G168" t="n">
-        <v>36.39366666666667</v>
+        <v>36.3935</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6596,7 +6294,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>36.6</v>
+        <v>36.47</v>
       </c>
       <c r="C169" t="n">
         <v>36.6</v>
@@ -6605,13 +6303,13 @@
         <v>36.6</v>
       </c>
       <c r="E169" t="n">
-        <v>36.6</v>
+        <v>36.47</v>
       </c>
       <c r="F169" t="n">
-        <v>16863.80244054645</v>
+        <v>6480.434859453552</v>
       </c>
       <c r="G169" t="n">
-        <v>36.39766666666666</v>
+        <v>36.39366666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6643,10 +6341,10 @@
         <v>36.6</v>
       </c>
       <c r="F170" t="n">
-        <v>3736.685659453552</v>
+        <v>16863.80244054645</v>
       </c>
       <c r="G170" t="n">
-        <v>36.40166666666666</v>
+        <v>36.39766666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6669,19 +6367,19 @@
         <v>36.6</v>
       </c>
       <c r="C171" t="n">
-        <v>36.69</v>
+        <v>36.6</v>
       </c>
       <c r="D171" t="n">
-        <v>36.69</v>
+        <v>36.6</v>
       </c>
       <c r="E171" t="n">
         <v>36.6</v>
       </c>
       <c r="F171" t="n">
-        <v>14</v>
+        <v>3736.685659453552</v>
       </c>
       <c r="G171" t="n">
-        <v>36.41183333333333</v>
+        <v>36.40166666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6701,22 +6399,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C172" t="n">
-        <v>36.7</v>
+        <v>36.69</v>
       </c>
       <c r="D172" t="n">
-        <v>36.7</v>
+        <v>36.69</v>
       </c>
       <c r="E172" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F172" t="n">
-        <v>1095</v>
+        <v>14</v>
       </c>
       <c r="G172" t="n">
-        <v>36.42616666666665</v>
+        <v>36.41183333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6736,7 +6434,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C173" t="n">
         <v>36.7</v>
@@ -6745,13 +6443,13 @@
         <v>36.7</v>
       </c>
       <c r="E173" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F173" t="n">
-        <v>18246.469</v>
+        <v>1095</v>
       </c>
       <c r="G173" t="n">
-        <v>36.43999999999998</v>
+        <v>36.42616666666665</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6771,7 +6469,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C174" t="n">
         <v>36.7</v>
@@ -6780,13 +6478,13 @@
         <v>36.7</v>
       </c>
       <c r="E174" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F174" t="n">
-        <v>61053.0445</v>
+        <v>18246.469</v>
       </c>
       <c r="G174" t="n">
-        <v>36.44683333333332</v>
+        <v>36.43999999999998</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6806,22 +6504,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>36.46</v>
+        <v>36.7</v>
       </c>
       <c r="C175" t="n">
-        <v>36.46</v>
+        <v>36.7</v>
       </c>
       <c r="D175" t="n">
-        <v>36.46</v>
+        <v>36.7</v>
       </c>
       <c r="E175" t="n">
-        <v>36.46</v>
+        <v>36.7</v>
       </c>
       <c r="F175" t="n">
-        <v>28.1523</v>
+        <v>61053.0445</v>
       </c>
       <c r="G175" t="n">
-        <v>36.44799999999999</v>
+        <v>36.44683333333332</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6841,22 +6539,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>36.7</v>
+        <v>36.46</v>
       </c>
       <c r="C176" t="n">
-        <v>36.71</v>
+        <v>36.46</v>
       </c>
       <c r="D176" t="n">
-        <v>36.71</v>
+        <v>36.46</v>
       </c>
       <c r="E176" t="n">
-        <v>36.7</v>
+        <v>36.46</v>
       </c>
       <c r="F176" t="n">
-        <v>61</v>
+        <v>28.1523</v>
       </c>
       <c r="G176" t="n">
-        <v>36.44449999999998</v>
+        <v>36.44799999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6876,7 +6574,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>36.71</v>
+        <v>36.7</v>
       </c>
       <c r="C177" t="n">
         <v>36.71</v>
@@ -6885,13 +6583,13 @@
         <v>36.71</v>
       </c>
       <c r="E177" t="n">
-        <v>36.71</v>
+        <v>36.7</v>
       </c>
       <c r="F177" t="n">
-        <v>7108.2221</v>
+        <v>61</v>
       </c>
       <c r="G177" t="n">
-        <v>36.44099999999999</v>
+        <v>36.44449999999998</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6911,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>36.6</v>
+        <v>36.71</v>
       </c>
       <c r="C178" t="n">
-        <v>36.6</v>
+        <v>36.71</v>
       </c>
       <c r="D178" t="n">
-        <v>36.6</v>
+        <v>36.71</v>
       </c>
       <c r="E178" t="n">
-        <v>36.6</v>
+        <v>36.71</v>
       </c>
       <c r="F178" t="n">
-        <v>81.3</v>
+        <v>7108.2221</v>
       </c>
       <c r="G178" t="n">
-        <v>36.43566666666665</v>
+        <v>36.44099999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6946,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>36.89</v>
+        <v>36.6</v>
       </c>
       <c r="C179" t="n">
-        <v>36.89</v>
+        <v>36.6</v>
       </c>
       <c r="D179" t="n">
-        <v>36.89</v>
+        <v>36.6</v>
       </c>
       <c r="E179" t="n">
-        <v>36.89</v>
+        <v>36.6</v>
       </c>
       <c r="F179" t="n">
-        <v>100</v>
+        <v>81.3</v>
       </c>
       <c r="G179" t="n">
-        <v>36.44083333333332</v>
+        <v>36.43566666666665</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6984,16 +6682,16 @@
         <v>36.89</v>
       </c>
       <c r="C180" t="n">
-        <v>36.91</v>
+        <v>36.89</v>
       </c>
       <c r="D180" t="n">
-        <v>36.91</v>
+        <v>36.89</v>
       </c>
       <c r="E180" t="n">
-        <v>36.6</v>
+        <v>36.89</v>
       </c>
       <c r="F180" t="n">
-        <v>1493.9314</v>
+        <v>100</v>
       </c>
       <c r="G180" t="n">
         <v>36.44083333333332</v>
@@ -7016,22 +6714,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>36.56</v>
+        <v>36.89</v>
       </c>
       <c r="C181" t="n">
-        <v>36.4</v>
+        <v>36.91</v>
       </c>
       <c r="D181" t="n">
-        <v>36.56</v>
+        <v>36.91</v>
       </c>
       <c r="E181" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F181" t="n">
-        <v>48804.4962</v>
+        <v>1493.9314</v>
       </c>
       <c r="G181" t="n">
-        <v>36.43783333333332</v>
+        <v>36.44083333333332</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7051,19 +6749,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>36.4</v>
+        <v>36.56</v>
       </c>
       <c r="C182" t="n">
         <v>36.4</v>
       </c>
       <c r="D182" t="n">
-        <v>36.4</v>
+        <v>36.56</v>
       </c>
       <c r="E182" t="n">
         <v>36.4</v>
       </c>
       <c r="F182" t="n">
-        <v>13199.6488</v>
+        <v>48804.4962</v>
       </c>
       <c r="G182" t="n">
         <v>36.43783333333332</v>
@@ -7086,22 +6784,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>36.57</v>
+        <v>36.4</v>
       </c>
       <c r="C183" t="n">
-        <v>36.57</v>
+        <v>36.4</v>
       </c>
       <c r="D183" t="n">
-        <v>36.57</v>
+        <v>36.4</v>
       </c>
       <c r="E183" t="n">
-        <v>36.57</v>
+        <v>36.4</v>
       </c>
       <c r="F183" t="n">
-        <v>60.556</v>
+        <v>13199.6488</v>
       </c>
       <c r="G183" t="n">
-        <v>36.44233333333332</v>
+        <v>36.43783333333332</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7124,19 +6822,19 @@
         <v>36.57</v>
       </c>
       <c r="C184" t="n">
-        <v>36.41</v>
+        <v>36.57</v>
       </c>
       <c r="D184" t="n">
         <v>36.57</v>
       </c>
       <c r="E184" t="n">
-        <v>36.41</v>
+        <v>36.57</v>
       </c>
       <c r="F184" t="n">
-        <v>31284.6571</v>
+        <v>60.556</v>
       </c>
       <c r="G184" t="n">
-        <v>36.44749999999998</v>
+        <v>36.44233333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7159,19 +6857,19 @@
         <v>36.57</v>
       </c>
       <c r="C185" t="n">
-        <v>36.57</v>
+        <v>36.41</v>
       </c>
       <c r="D185" t="n">
         <v>36.57</v>
       </c>
       <c r="E185" t="n">
-        <v>36.57</v>
+        <v>36.41</v>
       </c>
       <c r="F185" t="n">
-        <v>60.556</v>
+        <v>31284.6571</v>
       </c>
       <c r="G185" t="n">
-        <v>36.45533333333332</v>
+        <v>36.44749999999998</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7191,22 +6889,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>36.74</v>
+        <v>36.57</v>
       </c>
       <c r="C186" t="n">
-        <v>36.74</v>
+        <v>36.57</v>
       </c>
       <c r="D186" t="n">
-        <v>36.74</v>
+        <v>36.57</v>
       </c>
       <c r="E186" t="n">
-        <v>36.74</v>
+        <v>36.57</v>
       </c>
       <c r="F186" t="n">
-        <v>60.3898</v>
+        <v>60.556</v>
       </c>
       <c r="G186" t="n">
-        <v>36.45633333333332</v>
+        <v>36.45533333333332</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7226,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>36.79</v>
+        <v>36.74</v>
       </c>
       <c r="C187" t="n">
-        <v>36.79</v>
+        <v>36.74</v>
       </c>
       <c r="D187" t="n">
-        <v>36.79</v>
+        <v>36.74</v>
       </c>
       <c r="E187" t="n">
-        <v>36.79</v>
+        <v>36.74</v>
       </c>
       <c r="F187" t="n">
-        <v>7456.1928</v>
+        <v>60.3898</v>
       </c>
       <c r="G187" t="n">
-        <v>36.45483333333332</v>
+        <v>36.45633333333332</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7273,7 +6971,7 @@
         <v>36.79</v>
       </c>
       <c r="F188" t="n">
-        <v>7456.2202</v>
+        <v>7456.1928</v>
       </c>
       <c r="G188" t="n">
         <v>36.45483333333332</v>
@@ -7299,19 +6997,19 @@
         <v>36.79</v>
       </c>
       <c r="C189" t="n">
-        <v>36.91</v>
+        <v>36.79</v>
       </c>
       <c r="D189" t="n">
-        <v>36.91</v>
+        <v>36.79</v>
       </c>
       <c r="E189" t="n">
         <v>36.79</v>
       </c>
       <c r="F189" t="n">
-        <v>74749.39049999999</v>
+        <v>7456.2202</v>
       </c>
       <c r="G189" t="n">
-        <v>36.46433333333331</v>
+        <v>36.45483333333332</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7331,22 +7029,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="C190" t="n">
         <v>36.91</v>
       </c>
-      <c r="C190" t="n">
-        <v>37</v>
-      </c>
       <c r="D190" t="n">
-        <v>37</v>
+        <v>36.91</v>
       </c>
       <c r="E190" t="n">
-        <v>36.91</v>
+        <v>36.79</v>
       </c>
       <c r="F190" t="n">
-        <v>106876.1156</v>
+        <v>74749.39049999999</v>
       </c>
       <c r="G190" t="n">
-        <v>36.47283333333332</v>
+        <v>36.46433333333331</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7366,7 +7064,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>37</v>
+        <v>36.91</v>
       </c>
       <c r="C191" t="n">
         <v>37</v>
@@ -7375,13 +7073,13 @@
         <v>37</v>
       </c>
       <c r="E191" t="n">
-        <v>37</v>
+        <v>36.91</v>
       </c>
       <c r="F191" t="n">
-        <v>9174.683000000001</v>
+        <v>106876.1156</v>
       </c>
       <c r="G191" t="n">
-        <v>36.48433333333332</v>
+        <v>36.47283333333332</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7413,10 +7111,10 @@
         <v>37</v>
       </c>
       <c r="F192" t="n">
-        <v>4319.0546</v>
+        <v>9174.683000000001</v>
       </c>
       <c r="G192" t="n">
-        <v>36.49766666666665</v>
+        <v>36.48433333333332</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7436,22 +7134,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>37.02</v>
+        <v>37</v>
       </c>
       <c r="C193" t="n">
-        <v>37.06</v>
+        <v>37</v>
       </c>
       <c r="D193" t="n">
-        <v>37.06</v>
+        <v>37</v>
       </c>
       <c r="E193" t="n">
-        <v>37.02</v>
+        <v>37</v>
       </c>
       <c r="F193" t="n">
-        <v>90</v>
+        <v>4319.0546</v>
       </c>
       <c r="G193" t="n">
-        <v>36.51216666666665</v>
+        <v>36.49766666666665</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7471,7 +7169,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>37.06</v>
+        <v>37.02</v>
       </c>
       <c r="C194" t="n">
         <v>37.06</v>
@@ -7480,13 +7178,13 @@
         <v>37.06</v>
       </c>
       <c r="E194" t="n">
-        <v>37.06</v>
+        <v>37.02</v>
       </c>
       <c r="F194" t="n">
-        <v>23485.1174</v>
+        <v>90</v>
       </c>
       <c r="G194" t="n">
-        <v>36.53149999999998</v>
+        <v>36.51216666666665</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7506,22 +7204,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>37.09</v>
+        <v>37.06</v>
       </c>
       <c r="C195" t="n">
-        <v>37.09</v>
+        <v>37.06</v>
       </c>
       <c r="D195" t="n">
-        <v>37.09</v>
+        <v>37.06</v>
       </c>
       <c r="E195" t="n">
-        <v>37.09</v>
+        <v>37.06</v>
       </c>
       <c r="F195" t="n">
-        <v>26.9808</v>
+        <v>23485.1174</v>
       </c>
       <c r="G195" t="n">
-        <v>36.54683333333332</v>
+        <v>36.53149999999998</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7553,10 +7251,10 @@
         <v>37.09</v>
       </c>
       <c r="F196" t="n">
-        <v>30014.267</v>
+        <v>26.9808</v>
       </c>
       <c r="G196" t="n">
-        <v>36.56716666666666</v>
+        <v>36.54683333333332</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7576,22 +7274,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>37.1</v>
+        <v>37.09</v>
       </c>
       <c r="C197" t="n">
-        <v>37.1</v>
+        <v>37.09</v>
       </c>
       <c r="D197" t="n">
-        <v>37.1</v>
+        <v>37.09</v>
       </c>
       <c r="E197" t="n">
-        <v>37.1</v>
+        <v>37.09</v>
       </c>
       <c r="F197" t="n">
-        <v>13.4771</v>
+        <v>30014.267</v>
       </c>
       <c r="G197" t="n">
-        <v>36.58549999999999</v>
+        <v>36.56716666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7623,10 +7321,10 @@
         <v>37.1</v>
       </c>
       <c r="F198" t="n">
-        <v>22755.9418</v>
+        <v>13.4771</v>
       </c>
       <c r="G198" t="n">
-        <v>36.59233333333331</v>
+        <v>36.58549999999999</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7646,22 +7344,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>37.06</v>
+        <v>37.1</v>
       </c>
       <c r="C199" t="n">
-        <v>37.06</v>
+        <v>37.1</v>
       </c>
       <c r="D199" t="n">
-        <v>37.06</v>
+        <v>37.1</v>
       </c>
       <c r="E199" t="n">
-        <v>37.06</v>
+        <v>37.1</v>
       </c>
       <c r="F199" t="n">
-        <v>1877.5106</v>
+        <v>22755.9418</v>
       </c>
       <c r="G199" t="n">
-        <v>36.59849999999998</v>
+        <v>36.59233333333331</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7681,22 +7379,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>37.1</v>
+        <v>37.06</v>
       </c>
       <c r="C200" t="n">
-        <v>37.1</v>
+        <v>37.06</v>
       </c>
       <c r="D200" t="n">
-        <v>37.1</v>
+        <v>37.06</v>
       </c>
       <c r="E200" t="n">
-        <v>37.1</v>
+        <v>37.06</v>
       </c>
       <c r="F200" t="n">
-        <v>4650.2813</v>
+        <v>1877.5106</v>
       </c>
       <c r="G200" t="n">
-        <v>36.60533333333331</v>
+        <v>36.59849999999998</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7716,22 +7414,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>37.13</v>
+        <v>37.1</v>
       </c>
       <c r="C201" t="n">
-        <v>37.29</v>
+        <v>37.1</v>
       </c>
       <c r="D201" t="n">
-        <v>37.29</v>
+        <v>37.1</v>
       </c>
       <c r="E201" t="n">
-        <v>37.13</v>
+        <v>37.1</v>
       </c>
       <c r="F201" t="n">
-        <v>54529.06185502816</v>
+        <v>4650.2813</v>
       </c>
       <c r="G201" t="n">
-        <v>36.61933333333332</v>
+        <v>36.60533333333331</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7751,22 +7449,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>37.13</v>
+      </c>
+      <c r="C202" t="n">
         <v>37.29</v>
       </c>
-      <c r="C202" t="n">
-        <v>37.3</v>
-      </c>
       <c r="D202" t="n">
-        <v>37.3</v>
+        <v>37.29</v>
       </c>
       <c r="E202" t="n">
-        <v>37.1</v>
+        <v>37.13</v>
       </c>
       <c r="F202" t="n">
-        <v>2097.894</v>
+        <v>54529.06185502816</v>
       </c>
       <c r="G202" t="n">
-        <v>36.62949999999999</v>
+        <v>36.61933333333332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7786,7 +7484,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>37.3</v>
+        <v>37.29</v>
       </c>
       <c r="C203" t="n">
         <v>37.3</v>
@@ -7795,13 +7493,13 @@
         <v>37.3</v>
       </c>
       <c r="E203" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="F203" t="n">
-        <v>20165.5889</v>
+        <v>2097.894</v>
       </c>
       <c r="G203" t="n">
-        <v>36.64349999999999</v>
+        <v>36.62949999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7821,22 +7519,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>37.11</v>
+        <v>37.3</v>
       </c>
       <c r="C204" t="n">
-        <v>37.29</v>
+        <v>37.3</v>
       </c>
       <c r="D204" t="n">
-        <v>37.29</v>
+        <v>37.3</v>
       </c>
       <c r="E204" t="n">
-        <v>37.11</v>
+        <v>37.3</v>
       </c>
       <c r="F204" t="n">
-        <v>5013.4085</v>
+        <v>20165.5889</v>
       </c>
       <c r="G204" t="n">
-        <v>36.66699999999999</v>
+        <v>36.64349999999999</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7859,19 +7557,19 @@
         <v>37.11</v>
       </c>
       <c r="C205" t="n">
-        <v>37.11</v>
+        <v>37.29</v>
       </c>
       <c r="D205" t="n">
-        <v>37.11</v>
+        <v>37.29</v>
       </c>
       <c r="E205" t="n">
         <v>37.11</v>
       </c>
       <c r="F205" t="n">
-        <v>100</v>
+        <v>5013.4085</v>
       </c>
       <c r="G205" t="n">
-        <v>36.67733333333332</v>
+        <v>36.66699999999999</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7891,22 +7589,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>37.29</v>
+        <v>37.11</v>
       </c>
       <c r="C206" t="n">
-        <v>37.3</v>
+        <v>37.11</v>
       </c>
       <c r="D206" t="n">
-        <v>37.3</v>
+        <v>37.11</v>
       </c>
       <c r="E206" t="n">
-        <v>37.29</v>
+        <v>37.11</v>
       </c>
       <c r="F206" t="n">
-        <v>32956.7426</v>
+        <v>100</v>
       </c>
       <c r="G206" t="n">
-        <v>36.70099999999999</v>
+        <v>36.67733333333332</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7926,7 +7624,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>37.3</v>
+        <v>37.29</v>
       </c>
       <c r="C207" t="n">
         <v>37.3</v>
@@ -7935,13 +7633,13 @@
         <v>37.3</v>
       </c>
       <c r="E207" t="n">
-        <v>37.3</v>
+        <v>37.29</v>
       </c>
       <c r="F207" t="n">
-        <v>10866.4486</v>
+        <v>32956.7426</v>
       </c>
       <c r="G207" t="n">
-        <v>36.7145</v>
+        <v>36.70099999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7961,22 +7659,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>37.29</v>
+        <v>37.3</v>
       </c>
       <c r="C208" t="n">
-        <v>37.29</v>
+        <v>37.3</v>
       </c>
       <c r="D208" t="n">
-        <v>37.29</v>
+        <v>37.3</v>
       </c>
       <c r="E208" t="n">
-        <v>37.29</v>
+        <v>37.3</v>
       </c>
       <c r="F208" t="n">
-        <v>71200.0677</v>
+        <v>10866.4486</v>
       </c>
       <c r="G208" t="n">
-        <v>36.72833333333333</v>
+        <v>36.7145</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8008,10 +7706,10 @@
         <v>37.29</v>
       </c>
       <c r="F209" t="n">
-        <v>3772.4744</v>
+        <v>71200.0677</v>
       </c>
       <c r="G209" t="n">
-        <v>36.74216666666666</v>
+        <v>36.72833333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8040,13 +7738,13 @@
         <v>37.29</v>
       </c>
       <c r="E210" t="n">
-        <v>37.06</v>
+        <v>37.29</v>
       </c>
       <c r="F210" t="n">
-        <v>17821.7764</v>
+        <v>3772.4744</v>
       </c>
       <c r="G210" t="n">
-        <v>36.75599999999999</v>
+        <v>36.74216666666666</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8066,22 +7764,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>37.3</v>
+        <v>37.29</v>
       </c>
       <c r="C211" t="n">
-        <v>37.39</v>
+        <v>37.29</v>
       </c>
       <c r="D211" t="n">
-        <v>37.39</v>
+        <v>37.29</v>
       </c>
       <c r="E211" t="n">
         <v>37.06</v>
       </c>
       <c r="F211" t="n">
-        <v>2265.8814</v>
+        <v>17821.7764</v>
       </c>
       <c r="G211" t="n">
-        <v>36.77433333333332</v>
+        <v>36.75599999999999</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8101,22 +7799,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>37.17</v>
+        <v>37.3</v>
       </c>
       <c r="C212" t="n">
-        <v>37.38</v>
+        <v>37.39</v>
       </c>
       <c r="D212" t="n">
-        <v>37.38</v>
+        <v>37.39</v>
       </c>
       <c r="E212" t="n">
-        <v>36.91</v>
+        <v>37.06</v>
       </c>
       <c r="F212" t="n">
-        <v>1145.279</v>
+        <v>2265.8814</v>
       </c>
       <c r="G212" t="n">
-        <v>36.78966666666666</v>
+        <v>36.77433333333332</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8136,22 +7834,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="C213" t="n">
         <v>37.38</v>
       </c>
-      <c r="C213" t="n">
-        <v>37.39</v>
-      </c>
       <c r="D213" t="n">
-        <v>37.39</v>
+        <v>37.38</v>
       </c>
       <c r="E213" t="n">
-        <v>37.38</v>
+        <v>36.91</v>
       </c>
       <c r="F213" t="n">
-        <v>1056.7113</v>
+        <v>1145.279</v>
       </c>
       <c r="G213" t="n">
-        <v>36.80516666666666</v>
+        <v>36.78966666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8171,7 +7869,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>37.39</v>
+        <v>37.38</v>
       </c>
       <c r="C214" t="n">
         <v>37.39</v>
@@ -8180,13 +7878,13 @@
         <v>37.39</v>
       </c>
       <c r="E214" t="n">
-        <v>37.39</v>
+        <v>37.38</v>
       </c>
       <c r="F214" t="n">
-        <v>13.3726</v>
+        <v>1056.7113</v>
       </c>
       <c r="G214" t="n">
-        <v>36.82066666666665</v>
+        <v>36.80516666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8206,22 +7904,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>37.17</v>
+        <v>37.39</v>
       </c>
       <c r="C215" t="n">
-        <v>37</v>
+        <v>37.39</v>
       </c>
       <c r="D215" t="n">
-        <v>37.17</v>
+        <v>37.39</v>
       </c>
       <c r="E215" t="n">
-        <v>37</v>
+        <v>37.39</v>
       </c>
       <c r="F215" t="n">
-        <v>107.8609</v>
+        <v>13.3726</v>
       </c>
       <c r="G215" t="n">
-        <v>36.82966666666665</v>
+        <v>36.82066666666665</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8241,22 +7939,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>37</v>
+        <v>37.17</v>
       </c>
       <c r="C216" t="n">
         <v>37</v>
       </c>
       <c r="D216" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="E216" t="n">
         <v>37</v>
       </c>
-      <c r="E216" t="n">
-        <v>36.62</v>
-      </c>
       <c r="F216" t="n">
-        <v>61079.945</v>
+        <v>107.8609</v>
       </c>
       <c r="G216" t="n">
-        <v>36.84149999999999</v>
+        <v>36.82966666666665</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8279,19 +7977,19 @@
         <v>37</v>
       </c>
       <c r="C217" t="n">
-        <v>37.27</v>
+        <v>37</v>
       </c>
       <c r="D217" t="n">
-        <v>37.27</v>
+        <v>37</v>
       </c>
       <c r="E217" t="n">
-        <v>36.71</v>
+        <v>36.62</v>
       </c>
       <c r="F217" t="n">
-        <v>3332.5852</v>
+        <v>61079.945</v>
       </c>
       <c r="G217" t="n">
-        <v>36.85783333333332</v>
+        <v>36.84149999999999</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8311,22 +8009,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>36.84</v>
+        <v>37</v>
       </c>
       <c r="C218" t="n">
-        <v>37.03</v>
+        <v>37.27</v>
       </c>
       <c r="D218" t="n">
-        <v>37.03</v>
+        <v>37.27</v>
       </c>
       <c r="E218" t="n">
-        <v>36.84</v>
+        <v>36.71</v>
       </c>
       <c r="F218" t="n">
-        <v>9188.185600000001</v>
+        <v>3332.5852</v>
       </c>
       <c r="G218" t="n">
-        <v>36.87016666666666</v>
+        <v>36.85783333333332</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8346,22 +8044,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="C219" t="n">
         <v>37.03</v>
       </c>
-      <c r="C219" t="n">
-        <v>37.19</v>
-      </c>
       <c r="D219" t="n">
-        <v>37.19</v>
+        <v>37.03</v>
       </c>
       <c r="E219" t="n">
-        <v>36.41</v>
+        <v>36.84</v>
       </c>
       <c r="F219" t="n">
-        <v>6122921.2721</v>
+        <v>9188.185600000001</v>
       </c>
       <c r="G219" t="n">
-        <v>36.88499999999999</v>
+        <v>36.87016666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8381,7 +8079,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>36.89</v>
+        <v>37.03</v>
       </c>
       <c r="C220" t="n">
         <v>37.19</v>
@@ -8390,13 +8088,13 @@
         <v>37.19</v>
       </c>
       <c r="E220" t="n">
-        <v>36.29</v>
+        <v>36.41</v>
       </c>
       <c r="F220" t="n">
-        <v>6002819.7482</v>
+        <v>6122921.2721</v>
       </c>
       <c r="G220" t="n">
-        <v>36.89983333333332</v>
+        <v>36.88499999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8419,19 +8117,19 @@
         <v>36.89</v>
       </c>
       <c r="C221" t="n">
-        <v>36.53</v>
+        <v>37.19</v>
       </c>
       <c r="D221" t="n">
-        <v>37.18</v>
+        <v>37.19</v>
       </c>
       <c r="E221" t="n">
-        <v>36.52</v>
+        <v>36.29</v>
       </c>
       <c r="F221" t="n">
-        <v>6002626.8097</v>
+        <v>6002819.7482</v>
       </c>
       <c r="G221" t="n">
-        <v>36.90099999999999</v>
+        <v>36.89983333333332</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8446,6 +8144,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="C222" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="D222" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="E222" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="F222" t="n">
+        <v>6002626.8097</v>
+      </c>
+      <c r="G222" t="n">
+        <v>36.90099999999999</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest FCT.xlsx
+++ b/BackTest/2020-01-11 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>119.3357</v>
       </c>
       <c r="G2" t="n">
+        <v>35.83733333333331</v>
+      </c>
+      <c r="H2" t="n">
         <v>36.5418333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
+        <v>35.79733333333331</v>
+      </c>
+      <c r="H3" t="n">
         <v>36.51699999999997</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>62.2524</v>
       </c>
       <c r="G4" t="n">
+        <v>35.76799999999997</v>
+      </c>
+      <c r="H4" t="n">
         <v>36.4978333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>5691.9368</v>
       </c>
       <c r="G5" t="n">
+        <v>35.75199999999997</v>
+      </c>
+      <c r="H5" t="n">
         <v>36.48149999999997</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>8561.4012</v>
       </c>
       <c r="G6" t="n">
+        <v>35.72399999999996</v>
+      </c>
+      <c r="H6" t="n">
         <v>36.45566666666663</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>42666.0309</v>
       </c>
       <c r="G7" t="n">
+        <v>35.69466666666663</v>
+      </c>
+      <c r="H7" t="n">
         <v>36.42716666666663</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>13744.404</v>
       </c>
       <c r="G8" t="n">
+        <v>35.66866666666662</v>
+      </c>
+      <c r="H8" t="n">
         <v>36.3973333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4280.2486</v>
       </c>
       <c r="G9" t="n">
+        <v>35.64866666666663</v>
+      </c>
+      <c r="H9" t="n">
         <v>36.36749999999996</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>6023.5775</v>
       </c>
       <c r="G10" t="n">
+        <v>35.61599999999996</v>
+      </c>
+      <c r="H10" t="n">
         <v>36.35099999999996</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>34040.8255</v>
       </c>
       <c r="G11" t="n">
+        <v>35.56999999999996</v>
+      </c>
+      <c r="H11" t="n">
         <v>36.33449999999996</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,25 @@
         <v>27888.6237</v>
       </c>
       <c r="G12" t="n">
+        <v>35.54599999999996</v>
+      </c>
+      <c r="H12" t="n">
         <v>36.30533333333329</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="L12" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,22 +875,29 @@
         <v>85639.4598</v>
       </c>
       <c r="G13" t="n">
+        <v>35.50799999999995</v>
+      </c>
+      <c r="H13" t="n">
         <v>36.27616666666663</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>35.43</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>35.43</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,24 +921,29 @@
         <v>1404.4944</v>
       </c>
       <c r="G14" t="n">
+        <v>35.51999999999996</v>
+      </c>
+      <c r="H14" t="n">
         <v>36.25299999999996</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="n">
         <v>35.43</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -913,24 +967,29 @@
         <v>10000</v>
       </c>
       <c r="G15" t="n">
+        <v>35.51999999999996</v>
+      </c>
+      <c r="H15" t="n">
         <v>36.23399999999995</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="n">
-        <v>35.43</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,18 +1013,29 @@
         <v>1445.5101</v>
       </c>
       <c r="G16" t="n">
+        <v>35.51133333333329</v>
+      </c>
+      <c r="H16" t="n">
         <v>36.21499999999995</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="L16" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,18 +1059,29 @@
         <v>1900.5168</v>
       </c>
       <c r="G17" t="n">
+        <v>35.55533333333329</v>
+      </c>
+      <c r="H17" t="n">
         <v>36.20116666666662</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="L17" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,18 +1105,29 @@
         <v>218.9324742032144</v>
       </c>
       <c r="G18" t="n">
+        <v>35.63599999999996</v>
+      </c>
+      <c r="H18" t="n">
         <v>36.19649999999995</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,18 +1151,27 @@
         <v>16487.575</v>
       </c>
       <c r="G19" t="n">
+        <v>35.64533333333329</v>
+      </c>
+      <c r="H19" t="n">
         <v>36.17649999999995</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,18 +1195,27 @@
         <v>55.6793</v>
       </c>
       <c r="G20" t="n">
+        <v>35.66266666666662</v>
+      </c>
+      <c r="H20" t="n">
         <v>36.15866666666663</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,18 +1239,27 @@
         <v>2454.8508</v>
       </c>
       <c r="G21" t="n">
+        <v>35.69399999999996</v>
+      </c>
+      <c r="H21" t="n">
         <v>36.14049999999997</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,18 +1283,27 @@
         <v>27365.8601</v>
       </c>
       <c r="G22" t="n">
+        <v>35.71666666666663</v>
+      </c>
+      <c r="H22" t="n">
         <v>36.1198333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1327,27 @@
         <v>9522.1129</v>
       </c>
       <c r="G23" t="n">
+        <v>35.7393333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>36.09649999999997</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1371,27 @@
         <v>60196.9969</v>
       </c>
       <c r="G24" t="n">
+        <v>35.75133333333329</v>
+      </c>
+      <c r="H24" t="n">
         <v>36.07199999999997</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1415,27 @@
         <v>13.999</v>
       </c>
       <c r="G25" t="n">
+        <v>35.78533333333329</v>
+      </c>
+      <c r="H25" t="n">
         <v>36.05416666666664</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1459,27 @@
         <v>2573.0528</v>
       </c>
       <c r="G26" t="n">
+        <v>35.80933333333329</v>
+      </c>
+      <c r="H26" t="n">
         <v>36.03416666666664</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1503,27 @@
         <v>15</v>
       </c>
       <c r="G27" t="n">
+        <v>35.83199999999997</v>
+      </c>
+      <c r="H27" t="n">
         <v>36.01699999999997</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1547,27 @@
         <v>48</v>
       </c>
       <c r="G28" t="n">
+        <v>35.88066666666663</v>
+      </c>
+      <c r="H28" t="n">
         <v>36.00049999999997</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1591,27 @@
         <v>2302.7422</v>
       </c>
       <c r="G29" t="n">
+        <v>35.93999999999996</v>
+      </c>
+      <c r="H29" t="n">
         <v>35.98949999999996</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1635,27 @@
         <v>111.1272</v>
       </c>
       <c r="G30" t="n">
+        <v>35.95666666666663</v>
+      </c>
+      <c r="H30" t="n">
         <v>35.97183333333329</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1679,27 @@
         <v>63.7296</v>
       </c>
       <c r="G31" t="n">
+        <v>36.0053333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>35.96499999999995</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1723,27 @@
         <v>4049.1223</v>
       </c>
       <c r="G32" t="n">
+        <v>36.0273333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>35.95699999999996</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1767,27 @@
         <v>106.7485</v>
       </c>
       <c r="G33" t="n">
+        <v>36.00999999999997</v>
+      </c>
+      <c r="H33" t="n">
         <v>35.94849999999995</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1811,27 @@
         <v>579.4257</v>
       </c>
       <c r="G34" t="n">
+        <v>36.05333333333331</v>
+      </c>
+      <c r="H34" t="n">
         <v>35.93966666666662</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1855,27 @@
         <v>13812.1024</v>
       </c>
       <c r="G35" t="n">
+        <v>36.08933333333331</v>
+      </c>
+      <c r="H35" t="n">
         <v>35.93083333333329</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1899,27 @@
         <v>100.7432</v>
       </c>
       <c r="G36" t="n">
+        <v>36.12666666666665</v>
+      </c>
+      <c r="H36" t="n">
         <v>35.92183333333329</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1943,27 @@
         <v>16.461</v>
       </c>
       <c r="G37" t="n">
+        <v>36.17399999999999</v>
+      </c>
+      <c r="H37" t="n">
         <v>35.91616666666662</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1987,27 @@
         <v>31840.7198</v>
       </c>
       <c r="G38" t="n">
+        <v>36.17799999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>35.90633333333328</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +2031,27 @@
         <v>2108.4953</v>
       </c>
       <c r="G39" t="n">
+        <v>36.22933333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>35.90883333333328</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +2075,27 @@
         <v>8386.67151234568</v>
       </c>
       <c r="G40" t="n">
+        <v>36.26466666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>35.9096666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2119,27 @@
         <v>21722.2834</v>
       </c>
       <c r="G41" t="n">
+        <v>36.26666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>35.90133333333327</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2163,27 @@
         <v>126326.0929</v>
       </c>
       <c r="G42" t="n">
+        <v>36.24866666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>35.89133333333327</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2207,27 @@
         <v>27278.3447</v>
       </c>
       <c r="G43" t="n">
+        <v>36.27800000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>35.90133333333327</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2251,27 @@
         <v>115522.2068566393</v>
       </c>
       <c r="G44" t="n">
+        <v>36.28533333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>35.9096666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2295,27 @@
         <v>190.3803</v>
       </c>
       <c r="G45" t="n">
+        <v>36.33133333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>35.9231666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2339,27 @@
         <v>97.5538</v>
       </c>
       <c r="G46" t="n">
+        <v>36.32800000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>35.92716666666661</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2383,27 @@
         <v>20789.90036288738</v>
       </c>
       <c r="G47" t="n">
+        <v>36.33533333333335</v>
+      </c>
+      <c r="H47" t="n">
         <v>35.93883333333327</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2427,27 @@
         <v>30577.71334808743</v>
       </c>
       <c r="G48" t="n">
+        <v>36.34533333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>35.9471666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2471,27 @@
         <v>2901.612021857924</v>
       </c>
       <c r="G49" t="n">
+        <v>36.35533333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>35.95549999999994</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2515,27 @@
         <v>40.0358</v>
       </c>
       <c r="G50" t="n">
+        <v>36.34733333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>35.96283333333327</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2559,27 @@
         <v>17411.8274</v>
       </c>
       <c r="G51" t="n">
+        <v>36.35533333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>35.97499999999994</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2603,27 @@
         <v>32.8049</v>
       </c>
       <c r="G52" t="n">
+        <v>36.36333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>35.9871666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2647,27 @@
         <v>3457.3782</v>
       </c>
       <c r="G53" t="n">
+        <v>36.39866666666668</v>
+      </c>
+      <c r="H53" t="n">
         <v>35.9961666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2691,27 @@
         <v>3817</v>
       </c>
       <c r="G54" t="n">
+        <v>36.39133333333335</v>
+      </c>
+      <c r="H54" t="n">
         <v>36.0051666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2735,27 @@
         <v>13.6912</v>
       </c>
       <c r="G55" t="n">
+        <v>36.39600000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>36.01549999999994</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2779,27 @@
         <v>569.6453</v>
       </c>
       <c r="G56" t="n">
+        <v>36.43200000000002</v>
+      </c>
+      <c r="H56" t="n">
         <v>36.01949999999994</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2823,27 @@
         <v>15.4317</v>
       </c>
       <c r="G57" t="n">
+        <v>36.48800000000002</v>
+      </c>
+      <c r="H57" t="n">
         <v>36.02866666666661</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2867,27 @@
         <v>602.4786</v>
       </c>
       <c r="G58" t="n">
+        <v>36.47066666666669</v>
+      </c>
+      <c r="H58" t="n">
         <v>36.03433333333328</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2911,27 @@
         <v>165.1074</v>
       </c>
       <c r="G59" t="n">
+        <v>36.45333333333335</v>
+      </c>
+      <c r="H59" t="n">
         <v>36.04966666666662</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2955,27 @@
         <v>5446</v>
       </c>
       <c r="G60" t="n">
+        <v>36.43600000000002</v>
+      </c>
+      <c r="H60" t="n">
         <v>36.06099999999995</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2999,27 @@
         <v>0.4652</v>
       </c>
       <c r="G61" t="n">
+        <v>36.43600000000002</v>
+      </c>
+      <c r="H61" t="n">
         <v>36.07016666666662</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +3043,27 @@
         <v>15.2599</v>
       </c>
       <c r="G62" t="n">
+        <v>36.42800000000002</v>
+      </c>
+      <c r="H62" t="n">
         <v>36.08649999999996</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +3087,27 @@
         <v>15.4504</v>
       </c>
       <c r="G63" t="n">
+        <v>36.41066666666669</v>
+      </c>
+      <c r="H63" t="n">
         <v>36.10049999999996</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +3131,27 @@
         <v>19930</v>
       </c>
       <c r="G64" t="n">
+        <v>36.40133333333335</v>
+      </c>
+      <c r="H64" t="n">
         <v>36.1138333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +3175,27 @@
         <v>26855.2945</v>
       </c>
       <c r="G65" t="n">
+        <v>36.40533333333335</v>
+      </c>
+      <c r="H65" t="n">
         <v>36.12616666666663</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3219,27 @@
         <v>230.8856</v>
       </c>
       <c r="G66" t="n">
+        <v>36.39333333333335</v>
+      </c>
+      <c r="H66" t="n">
         <v>36.1423333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3263,27 @@
         <v>55.2944</v>
       </c>
       <c r="G67" t="n">
+        <v>36.36600000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>36.15499999999997</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3307,27 @@
         <v>238.01</v>
       </c>
       <c r="G68" t="n">
+        <v>36.37</v>
+      </c>
+      <c r="H68" t="n">
         <v>36.17149999999997</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3351,27 @@
         <v>54.9451</v>
       </c>
       <c r="G69" t="n">
+        <v>36.374</v>
+      </c>
+      <c r="H69" t="n">
         <v>36.18649999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3395,27 @@
         <v>47000</v>
       </c>
       <c r="G70" t="n">
+        <v>36.372</v>
+      </c>
+      <c r="H70" t="n">
         <v>36.20449999999997</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3439,27 @@
         <v>55.2944</v>
       </c>
       <c r="G71" t="n">
+        <v>36.36066666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>36.21716666666665</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3483,27 @@
         <v>61.0602</v>
       </c>
       <c r="G72" t="n">
+        <v>36.36133333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>36.23249999999998</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3527,27 @@
         <v>0.9398</v>
       </c>
       <c r="G73" t="n">
+        <v>36.36199999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>36.24783333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3571,27 @@
         <v>13.7363</v>
       </c>
       <c r="G74" t="n">
+        <v>36.36599999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>36.26116666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3615,27 @@
         <v>15757.078</v>
       </c>
       <c r="G75" t="n">
+        <v>36.36999999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>36.27349999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3659,27 @@
         <v>153000</v>
       </c>
       <c r="G76" t="n">
+        <v>36.43266666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>36.30049999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3703,27 @@
         <v>108309.0156</v>
       </c>
       <c r="G77" t="n">
+        <v>36.48399999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>36.31866666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3747,27 @@
         <v>123.1415</v>
       </c>
       <c r="G78" t="n">
+        <v>36.54466666666665</v>
+      </c>
+      <c r="H78" t="n">
         <v>36.32766666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3791,27 @@
         <v>120.1093</v>
       </c>
       <c r="G79" t="n">
+        <v>36.59733333333331</v>
+      </c>
+      <c r="H79" t="n">
         <v>36.35183333333332</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3835,27 @@
         <v>14.0917</v>
       </c>
       <c r="G80" t="n">
+        <v>36.64933333333331</v>
+      </c>
+      <c r="H80" t="n">
         <v>36.37283333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3879,27 @@
         <v>178</v>
       </c>
       <c r="G81" t="n">
+        <v>36.68599999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>36.39033333333332</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3923,27 @@
         <v>3170000</v>
       </c>
       <c r="G82" t="n">
+        <v>36.72799999999998</v>
+      </c>
+      <c r="H82" t="n">
         <v>36.40783333333332</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3967,27 @@
         <v>3170123.4753</v>
       </c>
       <c r="G83" t="n">
+        <v>36.78466666666665</v>
+      </c>
+      <c r="H83" t="n">
         <v>36.43283333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +4011,27 @@
         <v>5153.2567</v>
       </c>
       <c r="G84" t="n">
+        <v>36.84066666666665</v>
+      </c>
+      <c r="H84" t="n">
         <v>36.45883333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +4055,27 @@
         <v>53.9957</v>
       </c>
       <c r="G85" t="n">
+        <v>36.87733333333332</v>
+      </c>
+      <c r="H85" t="n">
         <v>36.47749999999998</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +4099,27 @@
         <v>28000</v>
       </c>
       <c r="G86" t="n">
+        <v>36.94799999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>36.50183333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +4143,27 @@
         <v>78000</v>
       </c>
       <c r="G87" t="n">
+        <v>37.00666666666665</v>
+      </c>
+      <c r="H87" t="n">
         <v>36.52616666666665</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +4187,27 @@
         <v>54.6448</v>
       </c>
       <c r="G88" t="n">
+        <v>37.02333333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>36.53349999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +4231,27 @@
         <v>46000</v>
       </c>
       <c r="G89" t="n">
+        <v>37.07799999999999</v>
+      </c>
+      <c r="H89" t="n">
         <v>36.54566666666665</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4275,27 @@
         <v>60.5061</v>
       </c>
       <c r="G90" t="n">
+        <v>37.09199999999999</v>
+      </c>
+      <c r="H90" t="n">
         <v>36.55733333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4319,27 @@
         <v>23927.4641</v>
       </c>
       <c r="G91" t="n">
+        <v>37.08</v>
+      </c>
+      <c r="H91" t="n">
         <v>36.56916666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4363,27 @@
         <v>17417.9045</v>
       </c>
       <c r="G92" t="n">
+        <v>37.05666666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>36.576</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4407,27 @@
         <v>2573.8256</v>
       </c>
       <c r="G93" t="n">
+        <v>37.03333333333332</v>
+      </c>
+      <c r="H93" t="n">
         <v>36.5835</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4451,27 @@
         <v>3467.6718</v>
       </c>
       <c r="G94" t="n">
+        <v>37.00466666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>36.58966666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4495,27 @@
         <v>23563.8376</v>
       </c>
       <c r="G95" t="n">
+        <v>36.95933333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>36.59033333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4539,27 @@
         <v>27.2554</v>
       </c>
       <c r="G96" t="n">
+        <v>36.94199999999999</v>
+      </c>
+      <c r="H96" t="n">
         <v>36.59416666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4583,27 @@
         <v>62.3476</v>
       </c>
       <c r="G97" t="n">
+        <v>36.94799999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>36.60133333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4627,27 @@
         <v>13681.3691</v>
       </c>
       <c r="G98" t="n">
+        <v>36.88866666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>36.61050000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4671,27 @@
         <v>4551.2799</v>
       </c>
       <c r="G99" t="n">
+        <v>36.82599999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>36.60800000000002</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4715,27 @@
         <v>60.8407</v>
       </c>
       <c r="G100" t="n">
+        <v>36.78999999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>36.60883333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4759,27 @@
         <v>2273.9288</v>
       </c>
       <c r="G101" t="n">
+        <v>36.76133333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>36.62550000000002</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4803,27 @@
         <v>135.8696</v>
       </c>
       <c r="G102" t="n">
+        <v>36.73266666666665</v>
+      </c>
+      <c r="H102" t="n">
         <v>36.64716666666668</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4847,27 @@
         <v>79235.71999864865</v>
       </c>
       <c r="G103" t="n">
+        <v>36.75533333333332</v>
+      </c>
+      <c r="H103" t="n">
         <v>36.65283333333335</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4891,27 @@
         <v>13.5209</v>
       </c>
       <c r="G104" t="n">
+        <v>36.73933333333332</v>
+      </c>
+      <c r="H104" t="n">
         <v>36.65916666666669</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4935,27 @@
         <v>17207.7007</v>
       </c>
       <c r="G105" t="n">
+        <v>36.70599999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>36.65100000000003</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4979,27 @@
         <v>2154.658</v>
       </c>
       <c r="G106" t="n">
+        <v>36.69733333333332</v>
+      </c>
+      <c r="H106" t="n">
         <v>36.66150000000003</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +5023,27 @@
         <v>30061</v>
       </c>
       <c r="G107" t="n">
+        <v>36.68999999999998</v>
+      </c>
+      <c r="H107" t="n">
         <v>36.66466666666669</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +5067,27 @@
         <v>54.6597</v>
       </c>
       <c r="G108" t="n">
+        <v>36.66933333333332</v>
+      </c>
+      <c r="H108" t="n">
         <v>36.66450000000003</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +5111,27 @@
         <v>9024.6669</v>
       </c>
       <c r="G109" t="n">
+        <v>36.65399999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>36.66433333333337</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +5155,27 @@
         <v>15.9156</v>
       </c>
       <c r="G110" t="n">
+        <v>36.64466666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>36.6646666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +5199,27 @@
         <v>39.0899</v>
       </c>
       <c r="G111" t="n">
+        <v>36.62266666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>36.66100000000004</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +5243,27 @@
         <v>2973.2769</v>
       </c>
       <c r="G112" t="n">
+        <v>36.56866666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>36.6526666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +5287,27 @@
         <v>5307.5426</v>
       </c>
       <c r="G113" t="n">
+        <v>36.534</v>
+      </c>
+      <c r="H113" t="n">
         <v>36.64433333333337</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +5331,27 @@
         <v>516.2248</v>
       </c>
       <c r="G114" t="n">
+        <v>36.50533333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>36.63650000000003</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +5375,27 @@
         <v>556.9253</v>
       </c>
       <c r="G115" t="n">
+        <v>36.49133333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>36.6326666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +5419,27 @@
         <v>13.816</v>
       </c>
       <c r="G116" t="n">
+        <v>36.46400000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>36.63350000000003</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5463,27 @@
         <v>48227.5167</v>
       </c>
       <c r="G117" t="n">
+        <v>36.472</v>
+      </c>
+      <c r="H117" t="n">
         <v>36.64316666666669</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5507,27 @@
         <v>81.2568</v>
       </c>
       <c r="G118" t="n">
+        <v>36.47066666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>36.65283333333335</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5551,27 @@
         <v>30332.71939328277</v>
       </c>
       <c r="G119" t="n">
+        <v>36.46666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>36.66250000000002</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5595,27 @@
         <v>15</v>
       </c>
       <c r="G120" t="n">
+        <v>36.498</v>
+      </c>
+      <c r="H120" t="n">
         <v>36.66650000000002</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5639,27 @@
         <v>16</v>
       </c>
       <c r="G121" t="n">
+        <v>36.49399999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>36.67600000000002</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5683,27 @@
         <v>39.6747</v>
       </c>
       <c r="G122" t="n">
+        <v>36.48</v>
+      </c>
+      <c r="H122" t="n">
         <v>36.67766666666668</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5727,27 @@
         <v>33285.37391947874</v>
       </c>
       <c r="G123" t="n">
+        <v>36.46733333333332</v>
+      </c>
+      <c r="H123" t="n">
         <v>36.67866666666668</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5771,27 @@
         <v>30332.7193</v>
       </c>
       <c r="G124" t="n">
+        <v>36.44799999999999</v>
+      </c>
+      <c r="H124" t="n">
         <v>36.67600000000002</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5815,27 @@
         <v>2108.7387</v>
       </c>
       <c r="G125" t="n">
+        <v>36.43066666666665</v>
+      </c>
+      <c r="H125" t="n">
         <v>36.67100000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5859,27 @@
         <v>400</v>
       </c>
       <c r="G126" t="n">
+        <v>36.41333333333332</v>
+      </c>
+      <c r="H126" t="n">
         <v>36.66600000000001</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5903,27 @@
         <v>2175.2796</v>
       </c>
       <c r="G127" t="n">
+        <v>36.45333333333331</v>
+      </c>
+      <c r="H127" t="n">
         <v>36.6745</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5947,27 @@
         <v>5800062.7045</v>
       </c>
       <c r="G128" t="n">
+        <v>36.52266666666664</v>
+      </c>
+      <c r="H128" t="n">
         <v>36.6825</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5991,27 @@
         <v>32218.9524</v>
       </c>
       <c r="G129" t="n">
+        <v>36.58399999999997</v>
+      </c>
+      <c r="H129" t="n">
         <v>36.689</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +6035,27 @@
         <v>16902.4138</v>
       </c>
       <c r="G130" t="n">
+        <v>36.58733333333331</v>
+      </c>
+      <c r="H130" t="n">
         <v>36.68650000000001</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +6079,27 @@
         <v>61</v>
       </c>
       <c r="G131" t="n">
+        <v>36.59399999999998</v>
+      </c>
+      <c r="H131" t="n">
         <v>36.69183333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +6123,27 @@
         <v>55.0812</v>
       </c>
       <c r="G132" t="n">
+        <v>36.55333333333332</v>
+      </c>
+      <c r="H132" t="n">
         <v>36.69116666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +6167,27 @@
         <v>1810.6543</v>
       </c>
       <c r="G133" t="n">
+        <v>36.50533333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>36.68866666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +6211,27 @@
         <v>2987.828</v>
       </c>
       <c r="G134" t="n">
+        <v>36.45666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>36.68516666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +6255,27 @@
         <v>30208.6722</v>
       </c>
       <c r="G135" t="n">
+        <v>36.41133333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>36.67683333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +6299,27 @@
         <v>1875.9173</v>
       </c>
       <c r="G136" t="n">
+        <v>36.36199999999999</v>
+      </c>
+      <c r="H136" t="n">
         <v>36.65833333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +6343,27 @@
         <v>14000</v>
       </c>
       <c r="G137" t="n">
+        <v>36.31466666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>36.63533333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +6387,27 @@
         <v>38432.3136</v>
       </c>
       <c r="G138" t="n">
+        <v>36.288</v>
+      </c>
+      <c r="H138" t="n">
         <v>36.6145</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +6431,27 @@
         <v>127.2313</v>
       </c>
       <c r="G139" t="n">
+        <v>36.314</v>
+      </c>
+      <c r="H139" t="n">
         <v>36.60516666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +6475,27 @@
         <v>63.0656</v>
       </c>
       <c r="G140" t="n">
+        <v>36.35333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>36.597</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +6519,27 @@
         <v>62.8416</v>
       </c>
       <c r="G141" t="n">
+        <v>36.39266666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>36.59266666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +6563,27 @@
         <v>438.8371</v>
       </c>
       <c r="G142" t="n">
+        <v>36.37733333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>36.58683333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +6607,27 @@
         <v>31361.0095</v>
       </c>
       <c r="G143" t="n">
+        <v>36.36466666666668</v>
+      </c>
+      <c r="H143" t="n">
         <v>36.5775</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6651,27 @@
         <v>54.8546</v>
       </c>
       <c r="G144" t="n">
+        <v>36.34266666666668</v>
+      </c>
+      <c r="H144" t="n">
         <v>36.5645</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6695,27 @@
         <v>108814.1806</v>
       </c>
       <c r="G145" t="n">
+        <v>36.31200000000001</v>
+      </c>
+      <c r="H145" t="n">
         <v>36.54516666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6739,27 @@
         <v>2612.6198</v>
       </c>
       <c r="G146" t="n">
+        <v>36.31200000000001</v>
+      </c>
+      <c r="H146" t="n">
         <v>36.53283333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6783,27 @@
         <v>5712.7146</v>
       </c>
       <c r="G147" t="n">
+        <v>36.28333333333335</v>
+      </c>
+      <c r="H147" t="n">
         <v>36.51033333333334</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6827,27 @@
         <v>63.0656</v>
       </c>
       <c r="G148" t="n">
+        <v>36.30266666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>36.50850000000001</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6871,27 @@
         <v>42876.2115</v>
       </c>
       <c r="G149" t="n">
+        <v>36.32066666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>36.49583333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6915,27 @@
         <v>88</v>
       </c>
       <c r="G150" t="n">
+        <v>36.35800000000002</v>
+      </c>
+      <c r="H150" t="n">
         <v>36.49333333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6959,27 @@
         <v>3435.0491</v>
       </c>
       <c r="G151" t="n">
+        <v>36.37733333333335</v>
+      </c>
+      <c r="H151" t="n">
         <v>36.48266666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +7003,27 @@
         <v>1321.5665</v>
       </c>
       <c r="G152" t="n">
+        <v>36.40533333333335</v>
+      </c>
+      <c r="H152" t="n">
         <v>36.4725</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +7047,27 @@
         <v>2613.357</v>
       </c>
       <c r="G153" t="n">
+        <v>36.43600000000002</v>
+      </c>
+      <c r="H153" t="n">
         <v>36.46516666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +7091,27 @@
         <v>88</v>
       </c>
       <c r="G154" t="n">
+        <v>36.42066666666669</v>
+      </c>
+      <c r="H154" t="n">
         <v>36.45916666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +7135,27 @@
         <v>154</v>
       </c>
       <c r="G155" t="n">
+        <v>36.40533333333336</v>
+      </c>
+      <c r="H155" t="n">
         <v>36.4585</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +7179,27 @@
         <v>154</v>
       </c>
       <c r="G156" t="n">
+        <v>36.39000000000002</v>
+      </c>
+      <c r="H156" t="n">
         <v>36.45466666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +7223,27 @@
         <v>3588.3666</v>
       </c>
       <c r="G157" t="n">
+        <v>36.37933333333335</v>
+      </c>
+      <c r="H157" t="n">
         <v>36.44466666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +7267,27 @@
         <v>303.37</v>
       </c>
       <c r="G158" t="n">
+        <v>36.35266666666668</v>
+      </c>
+      <c r="H158" t="n">
         <v>36.4435</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +7311,27 @@
         <v>33859.6524</v>
       </c>
       <c r="G159" t="n">
+        <v>36.34133333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>36.44333333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +7355,27 @@
         <v>110.69</v>
       </c>
       <c r="G160" t="n">
+        <v>36.36933333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>36.44</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +7399,27 @@
         <v>8386.013800000001</v>
       </c>
       <c r="G161" t="n">
+        <v>36.35666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>36.43166666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +7443,27 @@
         <v>244</v>
       </c>
       <c r="G162" t="n">
+        <v>36.39533333333334</v>
+      </c>
+      <c r="H162" t="n">
         <v>36.426</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +7487,27 @@
         <v>52.94</v>
       </c>
       <c r="G163" t="n">
+        <v>36.38266666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>36.41533333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +7531,27 @@
         <v>48.7234</v>
       </c>
       <c r="G164" t="n">
+        <v>36.38266666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>36.40666666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +7575,27 @@
         <v>62.7485</v>
       </c>
       <c r="G165" t="n">
+        <v>36.38266666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>36.4125</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +7619,27 @@
         <v>11709.308</v>
       </c>
       <c r="G166" t="n">
+        <v>36.38266666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>36.404</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +7663,27 @@
         <v>8689.2348</v>
       </c>
       <c r="G167" t="n">
+        <v>36.39400000000001</v>
+      </c>
+      <c r="H167" t="n">
         <v>36.39850000000001</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +7707,27 @@
         <v>17388.4652</v>
       </c>
       <c r="G168" t="n">
+        <v>36.38266666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>36.3935</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +7751,27 @@
         <v>6480.434859453552</v>
       </c>
       <c r="G169" t="n">
+        <v>36.392</v>
+      </c>
+      <c r="H169" t="n">
         <v>36.39366666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +7795,27 @@
         <v>16863.80244054645</v>
       </c>
       <c r="G170" t="n">
+        <v>36.40133333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>36.39766666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7839,27 @@
         <v>3736.685659453552</v>
       </c>
       <c r="G171" t="n">
+        <v>36.41066666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>36.40166666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7883,27 @@
         <v>14</v>
       </c>
       <c r="G172" t="n">
+        <v>36.43733333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>36.41183333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7927,27 @@
         <v>1095</v>
       </c>
       <c r="G173" t="n">
+        <v>36.46466666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>36.42616666666665</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +7971,27 @@
         <v>18246.469</v>
       </c>
       <c r="G174" t="n">
+        <v>36.492</v>
+      </c>
+      <c r="H174" t="n">
         <v>36.43999999999998</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +8015,27 @@
         <v>61053.0445</v>
       </c>
       <c r="G175" t="n">
+        <v>36.51866666666668</v>
+      </c>
+      <c r="H175" t="n">
         <v>36.44683333333332</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +8059,27 @@
         <v>28.1523</v>
       </c>
       <c r="G176" t="n">
+        <v>36.52933333333335</v>
+      </c>
+      <c r="H176" t="n">
         <v>36.44799999999999</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +8103,27 @@
         <v>61</v>
       </c>
       <c r="G177" t="n">
+        <v>36.54600000000002</v>
+      </c>
+      <c r="H177" t="n">
         <v>36.44449999999998</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +8147,27 @@
         <v>7108.2221</v>
       </c>
       <c r="G178" t="n">
+        <v>36.57333333333336</v>
+      </c>
+      <c r="H178" t="n">
         <v>36.44099999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +8191,27 @@
         <v>81.3</v>
       </c>
       <c r="G179" t="n">
+        <v>36.58266666666669</v>
+      </c>
+      <c r="H179" t="n">
         <v>36.43566666666665</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +8235,27 @@
         <v>100</v>
       </c>
       <c r="G180" t="n">
+        <v>36.61133333333336</v>
+      </c>
+      <c r="H180" t="n">
         <v>36.44083333333332</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +8279,27 @@
         <v>1493.9314</v>
       </c>
       <c r="G181" t="n">
+        <v>36.64133333333335</v>
+      </c>
+      <c r="H181" t="n">
         <v>36.44083333333332</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +8323,27 @@
         <v>48804.4962</v>
       </c>
       <c r="G182" t="n">
+        <v>36.63733333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>36.43783333333332</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +8367,27 @@
         <v>13199.6488</v>
       </c>
       <c r="G183" t="n">
+        <v>36.64466666666668</v>
+      </c>
+      <c r="H183" t="n">
         <v>36.43783333333332</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +8411,27 @@
         <v>60.556</v>
       </c>
       <c r="G184" t="n">
+        <v>36.64266666666668</v>
+      </c>
+      <c r="H184" t="n">
         <v>36.44233333333332</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +8455,27 @@
         <v>31284.6571</v>
       </c>
       <c r="G185" t="n">
+        <v>36.63000000000001</v>
+      </c>
+      <c r="H185" t="n">
         <v>36.44749999999998</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +8499,27 @@
         <v>60.556</v>
       </c>
       <c r="G186" t="n">
+        <v>36.62800000000001</v>
+      </c>
+      <c r="H186" t="n">
         <v>36.45533333333332</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +8543,27 @@
         <v>60.3898</v>
       </c>
       <c r="G187" t="n">
+        <v>36.63133333333335</v>
+      </c>
+      <c r="H187" t="n">
         <v>36.45633333333332</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +8587,27 @@
         <v>7456.1928</v>
       </c>
       <c r="G188" t="n">
+        <v>36.63733333333334</v>
+      </c>
+      <c r="H188" t="n">
         <v>36.45483333333332</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +8631,27 @@
         <v>7456.2202</v>
       </c>
       <c r="G189" t="n">
+        <v>36.64333333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>36.45483333333332</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,18 +8675,27 @@
         <v>74749.39049999999</v>
       </c>
       <c r="G190" t="n">
+        <v>36.65733333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>36.46433333333331</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7079,18 +8719,27 @@
         <v>106876.1156</v>
       </c>
       <c r="G191" t="n">
+        <v>36.69333333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>36.47283333333332</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,18 +8763,27 @@
         <v>9174.683000000001</v>
       </c>
       <c r="G192" t="n">
+        <v>36.71266666666666</v>
+      </c>
+      <c r="H192" t="n">
         <v>36.48433333333332</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7149,18 +8807,27 @@
         <v>4319.0546</v>
       </c>
       <c r="G193" t="n">
+        <v>36.73199999999999</v>
+      </c>
+      <c r="H193" t="n">
         <v>36.49766666666665</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,18 +8851,27 @@
         <v>90</v>
       </c>
       <c r="G194" t="n">
+        <v>36.76266666666666</v>
+      </c>
+      <c r="H194" t="n">
         <v>36.51216666666665</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,18 +8895,27 @@
         <v>23485.1174</v>
       </c>
       <c r="G195" t="n">
+        <v>36.774</v>
+      </c>
+      <c r="H195" t="n">
         <v>36.53149999999998</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,18 +8939,27 @@
         <v>26.9808</v>
       </c>
       <c r="G196" t="n">
+        <v>36.78600000000001</v>
+      </c>
+      <c r="H196" t="n">
         <v>36.54683333333332</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,18 +8983,27 @@
         <v>30014.267</v>
       </c>
       <c r="G197" t="n">
+        <v>36.83200000000001</v>
+      </c>
+      <c r="H197" t="n">
         <v>36.56716666666666</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,18 +9027,27 @@
         <v>13.4771</v>
       </c>
       <c r="G198" t="n">
+        <v>36.87866666666668</v>
+      </c>
+      <c r="H198" t="n">
         <v>36.58549999999999</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7359,18 +9071,27 @@
         <v>22755.9418</v>
       </c>
       <c r="G199" t="n">
+        <v>36.91400000000001</v>
+      </c>
+      <c r="H199" t="n">
         <v>36.59233333333331</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,18 +9115,27 @@
         <v>1877.5106</v>
       </c>
       <c r="G200" t="n">
+        <v>36.95733333333335</v>
+      </c>
+      <c r="H200" t="n">
         <v>36.59849999999998</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,18 +9159,27 @@
         <v>4650.2813</v>
       </c>
       <c r="G201" t="n">
+        <v>36.99266666666668</v>
+      </c>
+      <c r="H201" t="n">
         <v>36.60533333333331</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7464,18 +9203,27 @@
         <v>54529.06185502816</v>
       </c>
       <c r="G202" t="n">
+        <v>37.02933333333335</v>
+      </c>
+      <c r="H202" t="n">
         <v>36.61933333333332</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,18 +9247,27 @@
         <v>2097.894</v>
       </c>
       <c r="G203" t="n">
+        <v>37.06333333333335</v>
+      </c>
+      <c r="H203" t="n">
         <v>36.62949999999999</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,18 +9291,27 @@
         <v>20165.5889</v>
       </c>
       <c r="G204" t="n">
+        <v>37.09733333333335</v>
+      </c>
+      <c r="H204" t="n">
         <v>36.64349999999999</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,19 +9335,28 @@
         <v>5013.4085</v>
       </c>
       <c r="G205" t="n">
+        <v>37.12266666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>36.66699999999999</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
+      <c r="L205" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>1.048092346794691</v>
       </c>
     </row>
     <row r="206">
@@ -7604,18 +9379,21 @@
         <v>100</v>
       </c>
       <c r="G206" t="n">
+        <v>37.13000000000001</v>
+      </c>
+      <c r="H206" t="n">
         <v>36.67733333333332</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,18 +9417,21 @@
         <v>32956.7426</v>
       </c>
       <c r="G207" t="n">
+        <v>37.15000000000001</v>
+      </c>
+      <c r="H207" t="n">
         <v>36.70099999999999</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7674,18 +9455,21 @@
         <v>10866.4486</v>
       </c>
       <c r="G208" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="H208" t="n">
         <v>36.7145</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,18 +9493,21 @@
         <v>71200.0677</v>
       </c>
       <c r="G209" t="n">
+        <v>37.18533333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>36.72833333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7744,18 +9531,21 @@
         <v>3772.4744</v>
       </c>
       <c r="G210" t="n">
+        <v>37.20066666666666</v>
+      </c>
+      <c r="H210" t="n">
         <v>36.74216666666666</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7779,18 +9569,21 @@
         <v>17821.7764</v>
       </c>
       <c r="G211" t="n">
+        <v>37.21399999999999</v>
+      </c>
+      <c r="H211" t="n">
         <v>36.75599999999999</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,18 +9607,21 @@
         <v>2265.8814</v>
       </c>
       <c r="G212" t="n">
+        <v>37.23399999999999</v>
+      </c>
+      <c r="H212" t="n">
         <v>36.77433333333332</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7849,18 +9645,21 @@
         <v>1145.279</v>
       </c>
       <c r="G213" t="n">
+        <v>37.25266666666666</v>
+      </c>
+      <c r="H213" t="n">
         <v>36.78966666666666</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7884,18 +9683,21 @@
         <v>1056.7113</v>
       </c>
       <c r="G214" t="n">
+        <v>37.27199999999998</v>
+      </c>
+      <c r="H214" t="n">
         <v>36.80516666666666</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,18 +9721,21 @@
         <v>13.3726</v>
       </c>
       <c r="G215" t="n">
+        <v>37.29399999999999</v>
+      </c>
+      <c r="H215" t="n">
         <v>36.82066666666665</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7954,18 +9759,21 @@
         <v>107.8609</v>
       </c>
       <c r="G216" t="n">
+        <v>37.28733333333332</v>
+      </c>
+      <c r="H216" t="n">
         <v>36.82966666666665</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7989,18 +9797,21 @@
         <v>61079.945</v>
       </c>
       <c r="G217" t="n">
+        <v>37.26799999999999</v>
+      </c>
+      <c r="H217" t="n">
         <v>36.84149999999999</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8024,18 +9835,21 @@
         <v>3332.5852</v>
       </c>
       <c r="G218" t="n">
+        <v>37.26599999999999</v>
+      </c>
+      <c r="H218" t="n">
         <v>36.85783333333332</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,18 +9873,21 @@
         <v>9188.185600000001</v>
       </c>
       <c r="G219" t="n">
+        <v>37.248</v>
+      </c>
+      <c r="H219" t="n">
         <v>36.87016666666666</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,18 +9911,21 @@
         <v>6122921.2721</v>
       </c>
       <c r="G220" t="n">
+        <v>37.24133333333332</v>
+      </c>
+      <c r="H220" t="n">
         <v>36.88499999999999</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8129,18 +9949,21 @@
         <v>6002819.7482</v>
       </c>
       <c r="G221" t="n">
+        <v>37.24666666666666</v>
+      </c>
+      <c r="H221" t="n">
         <v>36.89983333333332</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8164,18 +9987,401 @@
         <v>6002626.8097</v>
       </c>
       <c r="G222" t="n">
+        <v>37.19533333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>36.90099999999999</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="C223" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="E223" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3100061.8613</v>
+      </c>
+      <c r="G223" t="n">
+        <v>37.12866666666666</v>
+      </c>
+      <c r="H223" t="n">
+        <v>36.90099999999999</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>37</v>
+      </c>
+      <c r="C224" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="D224" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="E224" t="n">
+        <v>36.23</v>
+      </c>
+      <c r="F224" t="n">
+        <v>6100121.5466</v>
+      </c>
+      <c r="G224" t="n">
+        <v>37.12133333333333</v>
+      </c>
+      <c r="H224" t="n">
+        <v>36.91299999999999</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="C225" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="D225" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="E225" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3008654.2318</v>
+      </c>
+      <c r="G225" t="n">
+        <v>37.08333333333334</v>
+      </c>
+      <c r="H225" t="n">
+        <v>36.91733333333332</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="C226" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D226" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>36</v>
+      </c>
+      <c r="F226" t="n">
+        <v>540000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>37.07733333333334</v>
+      </c>
+      <c r="H226" t="n">
+        <v>36.92966666666665</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="C227" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="D227" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="E227" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="F227" t="n">
+        <v>770.8767</v>
+      </c>
+      <c r="G227" t="n">
+        <v>37.05733333333334</v>
+      </c>
+      <c r="H227" t="n">
+        <v>36.94016666666665</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="C228" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="D228" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="E228" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="F228" t="n">
+        <v>14780.4541</v>
+      </c>
+      <c r="G228" t="n">
+        <v>37.01333333333334</v>
+      </c>
+      <c r="H228" t="n">
+        <v>36.94733333333331</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C229" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="D229" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="E229" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="F229" t="n">
+        <v>62.3307</v>
+      </c>
+      <c r="G229" t="n">
+        <v>36.99333333333335</v>
+      </c>
+      <c r="H229" t="n">
+        <v>36.95549999999999</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="C230" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="D230" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="E230" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="F230" t="n">
+        <v>59.9129</v>
+      </c>
+      <c r="G230" t="n">
+        <v>36.96933333333335</v>
+      </c>
+      <c r="H230" t="n">
+        <v>36.96266666666666</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="C231" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="D231" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="E231" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="F231" t="n">
+        <v>13.5502</v>
+      </c>
+      <c r="G231" t="n">
+        <v>36.97533333333335</v>
+      </c>
+      <c r="H231" t="n">
+        <v>36.97083333333332</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="C232" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="D232" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="E232" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="F232" t="n">
+        <v>500</v>
+      </c>
+      <c r="G232" t="n">
+        <v>36.96866666666668</v>
+      </c>
+      <c r="H232" t="n">
+        <v>36.97433333333333</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest FCT.xlsx
+++ b/BackTest/2020-01-11 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N290"/>
+  <dimension ref="A1:M290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,22 +2431,15 @@
         <v>417774.1685626641</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K62" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2656,26 +2464,15 @@
         <v>417774.1685626641</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K63" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2700,26 +2497,15 @@
         <v>409212.7673626641</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K64" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2744,26 +2530,15 @@
         <v>366546.7364626641</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>35.43</v>
-      </c>
-      <c r="K65" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2788,26 +2563,15 @@
         <v>366546.7364626641</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="K66" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2832,26 +2596,19 @@
         <v>370826.9850626641</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>35.41</v>
       </c>
       <c r="J67" t="n">
         <v>35.41</v>
       </c>
-      <c r="K67" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2876,26 +2633,23 @@
         <v>364803.4075626641</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="J68" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K68" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>35.41</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2920,26 +2674,21 @@
         <v>364803.4075626641</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>35.41</v>
       </c>
-      <c r="K69" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2964,26 +2713,21 @@
         <v>392692.0312626641</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>35.41</v>
       </c>
-      <c r="K70" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3008,26 +2752,23 @@
         <v>392692.0312626641</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>35.43</v>
       </c>
       <c r="J71" t="n">
-        <v>35.43</v>
-      </c>
-      <c r="K71" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>35.41</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3052,26 +2793,21 @@
         <v>394096.5256626641</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>35.43</v>
-      </c>
-      <c r="K72" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>35.41</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3096,26 +2832,23 @@
         <v>404096.5256626641</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="J73" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K73" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>35.41</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3140,26 +2873,21 @@
         <v>404096.5256626641</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K74" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>35.41</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3184,26 +2912,21 @@
         <v>405997.0424626641</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K75" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>35.41</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3230,22 +2953,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3272,22 +2992,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3314,22 +3031,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3356,22 +3070,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3398,22 +3109,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3440,22 +3148,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3482,22 +3187,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3524,22 +3226,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3564,24 +3263,23 @@
         <v>297207.3176368673</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>35.92</v>
+      </c>
+      <c r="J84" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3606,24 +3304,23 @@
         <v>297207.3176368673</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>35.77</v>
+      </c>
+      <c r="J85" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3648,24 +3345,23 @@
         <v>297255.3176368673</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>35.77</v>
+      </c>
+      <c r="J86" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3690,24 +3386,23 @@
         <v>299558.0598368673</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>36.16</v>
+      </c>
+      <c r="J87" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3734,22 +3429,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3776,22 +3468,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3818,22 +3507,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3860,22 +3546,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3902,22 +3585,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3944,22 +3624,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3986,22 +3663,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4028,22 +3702,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4070,22 +3741,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4110,24 +3778,23 @@
         <v>287532.9139368673</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>35.81</v>
+      </c>
+      <c r="J97" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4154,22 +3821,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4194,24 +3858,23 @@
         <v>265810.6305368672</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>36.45</v>
+      </c>
+      <c r="J99" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4236,24 +3899,23 @@
         <v>139484.5376368673</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>35.8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4278,24 +3940,23 @@
         <v>166762.8823368673</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
         <v>35.5</v>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4320,24 +3981,23 @@
         <v>166762.8823368673</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>36.6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4364,22 +4024,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4404,24 +4061,23 @@
         <v>166665.3285368673</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>36.6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4446,24 +4102,23 @@
         <v>187455.2288997547</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>36.34</v>
+      </c>
+      <c r="J105" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4490,22 +4145,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4532,22 +4184,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4574,22 +4223,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4614,24 +4260,23 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>36.34</v>
+      </c>
+      <c r="J109" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4656,24 +4301,23 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>36.58</v>
+      </c>
+      <c r="J110" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4700,22 +4344,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4742,22 +4383,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4782,24 +4420,23 @@
         <v>201383.3334997547</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>36.34</v>
+      </c>
+      <c r="J113" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4824,24 +4461,23 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>36.52</v>
+      </c>
+      <c r="J114" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4866,24 +4502,23 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>36.34</v>
+      </c>
+      <c r="J115" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4908,24 +4543,23 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>36.34</v>
+      </c>
+      <c r="J116" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4952,22 +4586,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4992,24 +4623,23 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>36.34</v>
+      </c>
+      <c r="J118" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5034,24 +4664,23 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>36.34</v>
+      </c>
+      <c r="J119" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5076,24 +4705,23 @@
         <v>200828.9480997547</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>36.34</v>
+      </c>
+      <c r="J120" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5118,24 +4746,23 @@
         <v>200813.4976997547</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>36.48</v>
+      </c>
+      <c r="J121" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5162,22 +4789,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5204,22 +4828,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5246,22 +4867,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5286,24 +4904,23 @@
         <v>193832.9087997547</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>36.4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5328,24 +4945,23 @@
         <v>194070.9187997547</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>36.17</v>
+      </c>
+      <c r="J126" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5370,24 +4986,23 @@
         <v>194070.9187997547</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>36.4</v>
+      </c>
+      <c r="J127" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5412,24 +5027,23 @@
         <v>241070.9187997547</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>36.4</v>
+      </c>
+      <c r="J128" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5456,22 +5070,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5496,24 +5107,23 @@
         <v>241076.6845997547</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>36.17</v>
+      </c>
+      <c r="J130" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5538,24 +5148,23 @@
         <v>241076.6845997547</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>36.35</v>
+      </c>
+      <c r="J131" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5580,24 +5189,23 @@
         <v>241090.4208997547</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>36.35</v>
+      </c>
+      <c r="J132" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5622,24 +5230,23 @@
         <v>241090.4208997547</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>36.4</v>
+      </c>
+      <c r="J133" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5664,24 +5271,23 @@
         <v>394090.4208997546</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>36.4</v>
+      </c>
+      <c r="J134" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5708,22 +5314,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5750,22 +5353,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5792,22 +5392,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5834,22 +5431,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5876,22 +5470,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5918,22 +5509,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5960,22 +5548,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6002,22 +5587,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6044,22 +5626,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6086,22 +5665,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6128,22 +5704,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6170,22 +5743,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6212,22 +5782,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6254,22 +5821,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6296,22 +5860,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6338,22 +5899,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6380,22 +5938,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6422,22 +5977,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6464,22 +6016,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6506,22 +6055,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6548,22 +6094,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6590,22 +6133,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6632,22 +6172,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6674,22 +6211,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6716,22 +6250,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6758,22 +6289,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6800,22 +6328,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6842,22 +6367,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6884,22 +6406,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6926,22 +6445,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6968,22 +6484,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7010,22 +6523,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7052,22 +6562,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7094,22 +6601,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7136,22 +6640,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7178,22 +6679,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7220,22 +6718,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7262,22 +6757,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7304,22 +6796,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7346,22 +6835,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7388,22 +6874,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7430,22 +6913,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7472,22 +6952,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7514,22 +6991,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7556,22 +7030,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7598,22 +7069,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7640,22 +7108,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7682,22 +7147,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7724,22 +7186,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7766,22 +7225,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7808,22 +7264,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7850,22 +7303,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7892,22 +7342,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7934,22 +7381,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7976,22 +7420,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8018,22 +7459,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8060,22 +7498,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8102,22 +7537,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8144,22 +7576,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8186,22 +7615,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8228,22 +7654,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8270,22 +7693,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8312,22 +7732,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8354,22 +7771,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8396,22 +7810,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8438,22 +7849,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8480,22 +7888,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8522,22 +7927,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8564,22 +7966,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8606,22 +8005,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8648,22 +8044,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8690,22 +8083,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8732,22 +8122,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8774,22 +8161,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8816,22 +8200,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8856,24 +8237,21 @@
         <v>5946762.113278926</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8900,22 +8278,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8940,24 +8315,21 @@
         <v>5949375.470278926</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8984,22 +8356,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9024,24 +8393,21 @@
         <v>5949375.470278926</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9068,22 +8434,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9110,22 +8473,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9152,22 +8512,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9192,24 +8549,21 @@
         <v>5945897.793678926</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9236,22 +8590,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9278,22 +8629,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9318,24 +8666,21 @@
         <v>5946088.853678926</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9360,24 +8705,21 @@
         <v>5946137.577078925</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9404,22 +8746,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9444,24 +8783,21 @@
         <v>5946137.577078925</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9488,22 +8824,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9530,22 +8863,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9572,22 +8902,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9612,24 +8939,21 @@
         <v>5935229.546738379</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9656,22 +8980,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9698,22 +9019,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9740,22 +9058,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9782,22 +9097,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9824,22 +9136,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9866,22 +9175,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9908,22 +9214,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9950,22 +9253,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9992,22 +9292,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10034,22 +9331,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10076,22 +9370,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10118,22 +9409,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10160,22 +9448,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10202,22 +9487,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10244,22 +9526,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10286,22 +9565,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10328,22 +9604,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10370,22 +9643,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10410,24 +9680,21 @@
         <v>5865432.567138379</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1.033972041796103</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10452,24 +9719,15 @@
         <v>5940181.957638378</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10496,22 +9754,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10536,24 +9785,15 @@
         <v>6047058.073238378</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10578,24 +9818,15 @@
         <v>6047058.073238378</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10620,24 +9851,15 @@
         <v>6047148.073238378</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10662,24 +9884,15 @@
         <v>6047148.073238378</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1.038943661971831</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10704,18 +9917,15 @@
         <v>6047175.054038378</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10740,18 +9950,15 @@
         <v>6047175.054038378</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10776,18 +9983,15 @@
         <v>6047188.531138378</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10812,18 +10016,15 @@
         <v>6047188.531138378</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10848,18 +10049,15 @@
         <v>6045311.020538379</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10884,18 +10082,15 @@
         <v>6049961.301838378</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10922,16 +10117,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10956,18 +10148,15 @@
         <v>6106588.257693407</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10994,16 +10183,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -11028,18 +10214,15 @@
         <v>6101574.849193407</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -11064,18 +10247,15 @@
         <v>6101474.849193407</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11100,18 +10280,15 @@
         <v>6134431.591793407</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -11136,18 +10313,15 @@
         <v>6134431.591793407</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11172,18 +10346,15 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11208,18 +10379,15 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11244,18 +10412,15 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11280,18 +10445,15 @@
         <v>6065497.405493408</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11316,18 +10478,15 @@
         <v>6064352.126493407</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11352,18 +10511,15 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11388,18 +10544,15 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11424,18 +10577,15 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11460,18 +10610,15 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11496,18 +10643,15 @@
         <v>6068633.562093407</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11532,18 +10676,15 @@
         <v>6059445.376493406</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11570,16 +10711,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11606,16 +10744,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11642,16 +10777,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11678,16 +10810,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11714,16 +10843,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11750,16 +10876,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11786,16 +10909,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11822,16 +10942,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11858,16 +10975,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11894,16 +11008,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11930,16 +11041,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11966,16 +11074,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -12002,18 +11107,15 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest FCT.xlsx
+++ b/BackTest/2020-01-11 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2464,10 +2464,14 @@
         <v>417774.1685626641</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="J63" t="n">
+        <v>35.66</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2500,8 +2504,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2540,19 @@
         <v>366546.7364626641</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="J65" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2581,19 @@
         <v>366546.7364626641</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="J66" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,15 +2622,19 @@
         <v>370826.9850626641</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>35.41</v>
       </c>
       <c r="J67" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+        <v>35.66</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,17 +2663,17 @@
         <v>364803.4075626641</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>35.5</v>
       </c>
       <c r="J68" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2674,15 +2704,17 @@
         <v>364803.4075626641</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>35.41</v>
+      </c>
       <c r="J69" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2713,11 +2745,13 @@
         <v>392692.0312626641</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>35.41</v>
+      </c>
       <c r="J70" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2752,13 +2786,13 @@
         <v>392692.0312626641</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>35.43</v>
       </c>
       <c r="J71" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2793,11 +2827,13 @@
         <v>394096.5256626641</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>35.43</v>
+      </c>
       <c r="J72" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2832,13 +2868,13 @@
         <v>404096.5256626641</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>35.6</v>
       </c>
       <c r="J73" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2873,11 +2909,13 @@
         <v>404096.5256626641</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>35.66</v>
+      </c>
       <c r="J74" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2912,11 +2950,13 @@
         <v>405997.0424626641</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>35.66</v>
+      </c>
       <c r="J75" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -2955,7 +2995,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -2994,7 +3034,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3033,7 +3073,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3072,7 +3112,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3111,7 +3151,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3150,7 +3190,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3189,7 +3229,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3224,11 +3264,13 @@
         <v>299780.3704368673</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>35.68</v>
+      </c>
       <c r="J83" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3263,13 +3305,11 @@
         <v>297207.3176368673</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>35.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3304,13 +3344,11 @@
         <v>297207.3176368673</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>35.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3345,13 +3383,11 @@
         <v>297255.3176368673</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3386,13 +3422,11 @@
         <v>299558.0598368673</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>36.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3431,7 +3465,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3470,7 +3504,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3509,7 +3543,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3548,7 +3582,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3587,7 +3621,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3626,7 +3660,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3665,7 +3699,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3704,7 +3738,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3743,7 +3777,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3778,13 +3812,11 @@
         <v>287532.9139368673</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>35.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3823,7 +3855,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3858,13 +3890,11 @@
         <v>265810.6305368672</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3899,13 +3929,11 @@
         <v>139484.5376368673</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>35.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3940,13 +3968,11 @@
         <v>166762.8823368673</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>35.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3981,13 +4007,11 @@
         <v>166762.8823368673</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4026,7 +4050,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4061,13 +4085,11 @@
         <v>166665.3285368673</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4102,13 +4124,11 @@
         <v>187455.2288997547</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>36.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4147,7 +4167,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4186,7 +4206,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4225,7 +4245,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4260,13 +4280,11 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>36.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4301,13 +4319,11 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>36.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4346,7 +4362,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4385,7 +4401,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4420,13 +4436,11 @@
         <v>201383.3334997547</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>36.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4461,13 +4475,11 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>36.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4502,13 +4514,11 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>36.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4543,13 +4553,11 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>36.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4588,7 +4596,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4623,13 +4631,11 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>36.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4664,13 +4670,11 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>36.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4705,13 +4709,11 @@
         <v>200828.9480997547</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>36.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4746,13 +4748,11 @@
         <v>200813.4976997547</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>36.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4904,13 +4904,11 @@
         <v>193832.9087997547</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4945,13 +4943,11 @@
         <v>194070.9187997547</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>36.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4986,13 +4982,11 @@
         <v>194070.9187997547</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5027,13 +5021,11 @@
         <v>241070.9187997547</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5072,7 +5064,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5107,13 +5099,11 @@
         <v>241076.6845997547</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>36.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5148,13 +5138,11 @@
         <v>241076.6845997547</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>36.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5189,13 +5177,11 @@
         <v>241090.4208997547</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>36.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5230,13 +5216,11 @@
         <v>241090.4208997547</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5271,13 +5255,11 @@
         <v>394090.4208997546</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5316,7 +5298,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5355,7 +5337,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5394,7 +5376,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5433,7 +5415,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5472,7 +5454,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5511,7 +5493,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5550,7 +5532,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5589,7 +5571,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5628,7 +5610,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5667,7 +5649,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5706,7 +5688,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5745,7 +5727,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5784,7 +5766,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5823,7 +5805,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5862,7 +5844,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5901,7 +5883,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5940,7 +5922,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5979,7 +5961,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6018,7 +6000,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6057,7 +6039,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6096,7 +6078,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6135,7 +6117,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6174,7 +6156,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6213,7 +6195,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6252,7 +6234,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6291,7 +6273,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6330,7 +6312,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6369,7 +6351,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6408,7 +6390,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6447,7 +6429,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6486,7 +6468,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6525,7 +6507,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6564,7 +6546,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6603,7 +6585,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6642,7 +6624,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6681,7 +6663,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6720,7 +6702,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6759,7 +6741,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6798,7 +6780,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6837,7 +6819,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6876,7 +6858,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6915,7 +6897,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6954,7 +6936,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6993,7 +6975,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7032,7 +7014,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7071,7 +7053,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7110,7 +7092,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7149,7 +7131,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7188,7 +7170,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7227,7 +7209,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7266,7 +7248,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7305,7 +7287,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7344,7 +7326,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7383,7 +7365,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7422,7 +7404,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7461,7 +7443,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7500,7 +7482,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7539,7 +7521,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7578,7 +7560,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7617,7 +7599,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7656,7 +7638,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7695,7 +7677,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7734,7 +7716,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7773,7 +7755,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7812,7 +7794,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7851,7 +7833,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7890,7 +7872,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7929,7 +7911,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7968,7 +7950,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8007,7 +7989,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8046,7 +8028,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8085,7 +8067,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8124,7 +8106,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8163,7 +8145,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8202,7 +8184,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8237,11 +8219,11 @@
         <v>5946762.113278926</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8280,7 +8262,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8315,11 +8297,11 @@
         <v>5949375.470278926</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8358,7 +8340,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8393,11 +8375,11 @@
         <v>5949375.470278926</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8436,7 +8418,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8475,7 +8457,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8514,7 +8496,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8549,11 +8531,11 @@
         <v>5945897.793678926</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8592,7 +8574,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8631,7 +8613,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8666,11 +8648,11 @@
         <v>5946088.853678926</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8705,11 +8687,11 @@
         <v>5946137.577078925</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8748,7 +8730,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8783,11 +8765,11 @@
         <v>5946137.577078925</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8826,7 +8808,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8865,7 +8847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8904,7 +8886,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8939,11 +8921,11 @@
         <v>5935229.546738379</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8982,7 +8964,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9021,7 +9003,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9060,7 +9042,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9099,7 +9081,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9138,7 +9120,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9177,7 +9159,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9216,7 +9198,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9255,7 +9237,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9294,7 +9276,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9333,7 +9315,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9372,7 +9354,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9411,7 +9393,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9450,7 +9432,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9489,7 +9471,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9528,7 +9510,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9567,7 +9549,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9606,7 +9588,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9645,7 +9627,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9680,19 +9662,19 @@
         <v>5865432.567138379</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>35.41</v>
+        <v>35.66</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.033972041796103</v>
+        <v>1</v>
       </c>
       <c r="M247" t="inlineStr"/>
     </row>
@@ -9719,11 +9701,17 @@
         <v>5940181.957638378</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9755,8 +9743,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9785,11 +9779,17 @@
         <v>6047058.073238378</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9818,11 +9818,17 @@
         <v>6047058.073238378</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9851,11 +9857,17 @@
         <v>6047148.073238378</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9884,11 +9896,17 @@
         <v>6047148.073238378</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9917,11 +9935,17 @@
         <v>6047175.054038378</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9950,11 +9974,17 @@
         <v>6047175.054038378</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9983,11 +10013,17 @@
         <v>6047188.531138378</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10016,11 +10052,17 @@
         <v>6047188.531138378</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10049,11 +10091,17 @@
         <v>6045311.020538379</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10082,11 +10130,17 @@
         <v>6049961.301838378</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10118,8 +10172,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10148,11 +10208,17 @@
         <v>6106588.257693407</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10184,8 +10250,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10214,13 +10286,19 @@
         <v>6101574.849193407</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L263" t="n">
-        <v>1</v>
+        <v>1.040709478407179</v>
       </c>
       <c r="M263" t="inlineStr"/>
     </row>
@@ -10247,7 +10325,7 @@
         <v>6101474.849193407</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10280,7 +10358,7 @@
         <v>6134431.591793407</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10313,7 +10391,7 @@
         <v>6134431.591793407</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10346,7 +10424,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10379,7 +10457,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10412,7 +10490,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10445,7 +10523,7 @@
         <v>6065497.405493408</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10478,7 +10556,7 @@
         <v>6064352.126493407</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10511,7 +10589,7 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10544,7 +10622,7 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10577,7 +10655,7 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10610,7 +10688,7 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10643,7 +10721,7 @@
         <v>6068633.562093407</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10676,7 +10754,7 @@
         <v>6059445.376493406</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10709,7 +10787,7 @@
         <v>12182366.64859341</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10742,7 +10820,7 @@
         <v>12182366.64859341</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10775,7 +10853,7 @@
         <v>6179739.838893407</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10808,7 +10886,7 @@
         <v>3079677.977593407</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10841,7 +10919,7 @@
         <v>9179799.524193406</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10874,7 +10952,7 @@
         <v>6171145.292393406</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10907,7 +10985,7 @@
         <v>6711145.292393406</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10940,7 +11018,7 @@
         <v>6710374.415693406</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10973,7 +11051,7 @@
         <v>6695593.961593406</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11006,7 +11084,7 @@
         <v>6695656.292293406</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11039,7 +11117,7 @@
         <v>6695596.379393406</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11072,7 +11150,7 @@
         <v>6695609.929593407</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11105,7 +11183,7 @@
         <v>6695109.929593407</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11116,6 +11194,6 @@
       <c r="M290" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest FCT.xlsx
+++ b/BackTest/2020-01-11 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2464,14 +2464,10 @@
         <v>417774.1685626641</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="J63" t="n">
-        <v>35.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2504,219 +2500,179 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K64" t="inlineStr">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="C65" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="D65" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="E65" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="F65" t="n">
+        <v>42666.0309</v>
+      </c>
+      <c r="G65" t="n">
+        <v>366546.7364626641</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="C66" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="D66" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="E66" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="F66" t="n">
+        <v>13744.404</v>
+      </c>
+      <c r="G66" t="n">
+        <v>366546.7364626641</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4280.2486</v>
+      </c>
+      <c r="G67" t="n">
+        <v>370826.9850626641</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="C68" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="D68" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="E68" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6023.5775</v>
+      </c>
+      <c r="G68" t="n">
+        <v>364803.4075626641</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="C69" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="D69" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="E69" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="F69" t="n">
+        <v>34040.8255</v>
+      </c>
+      <c r="G69" t="n">
+        <v>364803.4075626641</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>35.42</v>
-      </c>
-      <c r="C65" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="D65" t="n">
-        <v>35.42</v>
-      </c>
-      <c r="E65" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="F65" t="n">
-        <v>42666.0309</v>
-      </c>
-      <c r="G65" t="n">
-        <v>366546.7364626641</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>35.43</v>
-      </c>
-      <c r="J65" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="C66" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="D66" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="E66" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="F66" t="n">
-        <v>13744.404</v>
-      </c>
-      <c r="G66" t="n">
-        <v>366546.7364626641</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="J66" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="C67" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="D67" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="E67" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F67" t="n">
-        <v>4280.2486</v>
-      </c>
-      <c r="G67" t="n">
-        <v>370826.9850626641</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="J67" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="C68" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="D68" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="E68" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="F68" t="n">
-        <v>6023.5775</v>
-      </c>
-      <c r="G68" t="n">
-        <v>364803.4075626641</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>35.42</v>
-      </c>
-      <c r="C69" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="D69" t="n">
-        <v>35.42</v>
-      </c>
-      <c r="E69" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="F69" t="n">
-        <v>34040.8255</v>
-      </c>
-      <c r="G69" t="n">
-        <v>364803.4075626641</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>35.41</v>
-      </c>
-      <c r="J69" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2750,9 +2706,7 @@
       <c r="I70" t="n">
         <v>35.41</v>
       </c>
-      <c r="J70" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2791,9 +2745,7 @@
       <c r="I71" t="n">
         <v>35.43</v>
       </c>
-      <c r="J71" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2832,9 +2784,7 @@
       <c r="I72" t="n">
         <v>35.43</v>
       </c>
-      <c r="J72" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2873,9 +2823,7 @@
       <c r="I73" t="n">
         <v>35.6</v>
       </c>
-      <c r="J73" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2914,9 +2862,7 @@
       <c r="I74" t="n">
         <v>35.66</v>
       </c>
-      <c r="J74" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,14 +2896,10 @@
         <v>405997.0424626641</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="J75" t="n">
-        <v>35.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2994,9 +2936,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3033,9 +2973,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3072,9 +3010,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3111,9 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3150,9 +3084,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3189,9 +3121,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3228,9 +3158,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3264,14 +3192,10 @@
         <v>299780.3704368673</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>35.68</v>
-      </c>
-      <c r="J83" t="n">
-        <v>35.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3308,9 +3232,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3347,9 +3269,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3386,9 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3425,9 +3343,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,9 +3380,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,9 +3417,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,9 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3581,9 +3491,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,9 +3528,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,9 +3565,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,9 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3737,9 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3776,9 +3676,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,9 +3713,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3854,9 +3750,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,9 +3787,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3932,9 +3824,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,9 +3861,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4010,9 +3898,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4049,9 +3935,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4088,9 +3972,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4127,9 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,9 +4046,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4205,9 +4083,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4244,9 +4120,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,20 +4154,16 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>35.66</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4319,17 +4189,11 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4358,17 +4222,11 @@
         <v>201369.6422997547</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4397,17 +4255,11 @@
         <v>201369.6422997547</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4436,17 +4288,11 @@
         <v>201383.3334997547</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4478,14 +4324,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4517,14 +4357,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4556,14 +4390,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4592,17 +4420,11 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4631,17 +4453,11 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4673,14 +4489,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4709,17 +4519,11 @@
         <v>200828.9480997547</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4748,17 +4552,11 @@
         <v>200813.4976997547</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4787,17 +4585,11 @@
         <v>220743.4976997547</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4829,14 +4621,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4865,17 +4651,11 @@
         <v>193888.2031997547</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4907,14 +4687,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4946,14 +4720,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4985,14 +4753,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5024,14 +4786,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5063,14 +4819,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5102,14 +4852,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5141,14 +4885,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5180,14 +4918,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5219,14 +4951,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5255,17 +4981,11 @@
         <v>394090.4208997546</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5297,14 +5017,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5336,14 +5050,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5375,14 +5083,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5414,14 +5116,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5453,14 +5149,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5492,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5531,14 +5215,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5570,14 +5248,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5609,14 +5281,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5648,14 +5314,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5687,14 +5347,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5726,14 +5380,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5765,14 +5413,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5804,14 +5446,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5843,14 +5479,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5882,14 +5512,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5921,14 +5545,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5960,14 +5578,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5999,14 +5611,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6038,14 +5644,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6077,14 +5677,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6116,14 +5710,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6155,14 +5743,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6194,14 +5776,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6233,14 +5809,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6272,14 +5842,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6311,14 +5875,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6350,14 +5908,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6389,14 +5941,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6428,14 +5974,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6467,14 +6007,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6506,14 +6040,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6545,14 +6073,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6584,14 +6106,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6623,14 +6139,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6662,14 +6172,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6701,14 +6205,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6740,14 +6238,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6779,14 +6271,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6818,14 +6304,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6857,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6896,14 +6370,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6935,14 +6403,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6974,14 +6436,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7013,14 +6469,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7052,14 +6502,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7091,14 +6535,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7130,14 +6568,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7169,14 +6601,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7208,14 +6634,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7247,14 +6667,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7286,14 +6700,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7325,14 +6733,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7364,14 +6766,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7403,14 +6799,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7442,14 +6832,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7481,14 +6865,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7520,14 +6898,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7559,14 +6931,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7598,14 +6964,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7637,14 +6997,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7676,14 +7030,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7715,14 +7063,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7754,14 +7096,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7793,14 +7129,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7832,14 +7162,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7871,14 +7195,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7910,14 +7228,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7949,14 +7261,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7988,14 +7294,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8027,14 +7327,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8066,14 +7360,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8105,14 +7393,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8144,14 +7426,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8183,14 +7459,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8222,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8261,14 +7525,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8300,14 +7558,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8339,14 +7591,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8378,14 +7624,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8417,14 +7657,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8456,14 +7690,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8495,14 +7723,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8534,14 +7756,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8573,14 +7789,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8612,14 +7822,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8651,14 +7855,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8690,14 +7888,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8729,14 +7921,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8768,14 +7954,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8807,14 +7987,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8846,14 +8020,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8885,14 +8053,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8924,14 +8086,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8963,14 +8119,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9002,14 +8152,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9041,14 +8185,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9080,14 +8218,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9119,14 +8251,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9158,14 +8284,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9197,14 +8317,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9236,14 +8350,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9275,14 +8383,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9314,14 +8416,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9353,14 +8449,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9392,14 +8482,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9431,14 +8515,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9470,14 +8548,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9509,14 +8581,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9548,14 +8614,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9587,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9626,14 +8680,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9665,14 +8713,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9704,14 +8746,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9743,14 +8779,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9782,14 +8812,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9821,14 +8845,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9860,14 +8878,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9899,14 +8911,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9938,14 +8944,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9977,14 +8977,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10016,14 +9010,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10055,14 +9043,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10094,14 +9076,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10133,14 +9109,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10172,14 +9142,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10211,14 +9175,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10250,14 +9208,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10286,19 +9238,13 @@
         <v>6101574.849193407</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
-        <v>1.040709478407179</v>
+        <v>1</v>
       </c>
       <c r="M263" t="inlineStr"/>
     </row>
@@ -10325,7 +9271,7 @@
         <v>6101474.849193407</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10391,7 +9337,7 @@
         <v>6134431.591793407</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10424,7 +9370,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10457,7 +9403,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10490,7 +9436,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10523,7 +9469,7 @@
         <v>6065497.405493408</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10556,7 +9502,7 @@
         <v>6064352.126493407</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10589,7 +9535,7 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10622,7 +9568,7 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10655,7 +9601,7 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10688,7 +9634,7 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10721,7 +9667,7 @@
         <v>6068633.562093407</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10754,7 +9700,7 @@
         <v>6059445.376493406</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10787,7 +9733,7 @@
         <v>12182366.64859341</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10820,7 +9766,7 @@
         <v>12182366.64859341</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10853,7 +9799,7 @@
         <v>6179739.838893407</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10886,7 +9832,7 @@
         <v>3079677.977593407</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10919,7 +9865,7 @@
         <v>9179799.524193406</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10952,7 +9898,7 @@
         <v>6171145.292393406</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10985,7 +9931,7 @@
         <v>6711145.292393406</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11018,7 +9964,7 @@
         <v>6710374.415693406</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11051,7 +9997,7 @@
         <v>6695593.961593406</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11084,7 +10030,7 @@
         <v>6695656.292293406</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11117,7 +10063,7 @@
         <v>6695596.379393406</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11150,7 +10096,7 @@
         <v>6695609.929593407</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11183,7 +10129,7 @@
         <v>6695109.929593407</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11194,6 +10140,6 @@
       <c r="M290" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest FCT.xlsx
+++ b/BackTest/2020-01-11 BackTest FCT.xlsx
@@ -2596,10 +2596,14 @@
         <v>370826.9850626641</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="J67" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2629,11 +2633,19 @@
         <v>364803.4075626641</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2667,7 +2679,9 @@
       <c r="I69" t="n">
         <v>35.41</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2706,7 +2720,9 @@
       <c r="I70" t="n">
         <v>35.41</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2745,7 +2761,9 @@
       <c r="I71" t="n">
         <v>35.43</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2784,7 +2802,9 @@
       <c r="I72" t="n">
         <v>35.43</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2823,7 +2843,9 @@
       <c r="I73" t="n">
         <v>35.6</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,7 +2884,9 @@
       <c r="I74" t="n">
         <v>35.66</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2896,10 +2920,14 @@
         <v>405997.0424626641</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="J75" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2933,10 +2961,14 @@
         <v>406215.9749368673</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="J76" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,7 +3005,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3010,7 +3044,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3047,7 +3083,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,7 +3122,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,7 +3161,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3158,7 +3200,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,7 +3239,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3232,7 +3278,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3269,7 +3317,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3306,7 +3356,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,7 +3395,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,7 +3434,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3417,7 +3473,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,7 +3512,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3491,7 +3551,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3528,7 +3590,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,7 +3629,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3602,7 +3668,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3639,7 +3707,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3676,7 +3746,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3713,7 +3785,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3750,7 +3824,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,7 +3863,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3824,7 +3902,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3861,7 +3941,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3898,7 +3980,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3935,7 +4019,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3972,7 +4058,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4009,7 +4097,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,7 +4136,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4083,7 +4175,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,7 +4214,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4154,16 +4250,20 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>35.41</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4189,11 +4289,17 @@
         <v>204827.0204997547</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4222,11 +4328,17 @@
         <v>201369.6422997547</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4255,11 +4367,17 @@
         <v>201369.6422997547</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4288,11 +4406,17 @@
         <v>201383.3334997547</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4324,8 +4448,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4357,8 +4487,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4390,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4420,11 +4562,17 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4453,11 +4601,17 @@
         <v>200813.6881997547</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4489,8 +4643,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4519,11 +4679,17 @@
         <v>200828.9480997547</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4552,11 +4718,17 @@
         <v>200813.4976997547</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4585,11 +4757,17 @@
         <v>220743.4976997547</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4621,8 +4799,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4651,11 +4835,17 @@
         <v>193888.2031997547</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4687,8 +4877,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4720,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4753,8 +4955,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4786,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4819,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4852,8 +5072,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4885,8 +5111,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4918,8 +5150,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4951,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4981,11 +5225,17 @@
         <v>394090.4208997546</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5017,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5050,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5083,8 +5345,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5116,8 +5384,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5149,8 +5423,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5462,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5215,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5248,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5281,8 +5579,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5314,8 +5618,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5347,8 +5657,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5380,8 +5696,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5413,8 +5735,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5446,8 +5774,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5479,8 +5813,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5512,8 +5852,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5545,8 +5891,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5578,8 +5930,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5611,8 +5969,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5644,8 +6008,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5677,8 +6047,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5710,8 +6086,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5743,8 +6125,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5776,8 +6164,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5809,8 +6203,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5842,8 +6242,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5875,8 +6281,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5908,8 +6320,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5941,8 +6359,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5974,8 +6398,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6007,8 +6437,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6040,8 +6476,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6073,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6106,8 +6554,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6139,8 +6593,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6172,8 +6632,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6205,8 +6671,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6238,8 +6710,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6271,8 +6749,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6304,8 +6788,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +6827,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6370,8 +6866,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6403,8 +6905,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6436,8 +6944,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6469,8 +6983,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6502,8 +7022,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6535,8 +7061,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6568,8 +7100,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6601,8 +7139,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6634,8 +7178,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6667,8 +7217,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6700,8 +7256,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6733,8 +7295,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6766,8 +7334,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6799,8 +7373,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6832,8 +7412,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6865,8 +7451,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6898,8 +7490,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6931,8 +7529,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6964,8 +7568,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6997,8 +7607,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7030,8 +7646,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7063,8 +7685,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7096,8 +7724,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7129,8 +7763,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7162,8 +7802,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7195,8 +7841,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7228,8 +7880,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7261,8 +7919,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7294,8 +7958,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7327,8 +7997,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7360,8 +8036,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7393,8 +8075,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7426,8 +8114,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7459,8 +8153,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +8192,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7525,8 +8231,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7558,8 +8270,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7591,8 +8309,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7624,8 +8348,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7657,8 +8387,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7690,8 +8426,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7723,8 +8465,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7756,8 +8504,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7789,8 +8543,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7822,8 +8582,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7855,8 +8621,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7888,8 +8660,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7921,8 +8699,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7954,8 +8738,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7987,8 +8777,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8020,8 +8816,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8053,8 +8855,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8086,8 +8894,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8119,8 +8933,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8152,8 +8972,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8185,8 +9011,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8218,8 +9050,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8251,8 +9089,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8284,8 +9128,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8317,8 +9167,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8350,8 +9206,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8383,8 +9245,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8416,8 +9284,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8449,8 +9323,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8482,8 +9362,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8515,8 +9401,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8548,8 +9440,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8581,8 +9479,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8614,8 +9518,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8647,8 +9557,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8680,8 +9596,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8713,8 +9635,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8746,8 +9674,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8779,8 +9713,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8812,8 +9752,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8845,8 +9791,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8878,8 +9830,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8911,8 +9869,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8944,8 +9908,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8977,8 +9947,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9010,8 +9986,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9043,8 +10025,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9076,8 +10064,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9109,8 +10103,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9139,13 +10139,19 @@
         <v>6104490.363693407</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L260" t="n">
-        <v>1</v>
+        <v>1.048092346794691</v>
       </c>
       <c r="M260" t="inlineStr"/>
     </row>
@@ -9172,7 +10178,7 @@
         <v>6106588.257693407</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9205,7 +10211,7 @@
         <v>6106588.257693407</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9238,7 +10244,7 @@
         <v>6101574.849193407</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9271,7 +10277,7 @@
         <v>6101474.849193407</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9304,7 +10310,7 @@
         <v>6134431.591793407</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9337,7 +10343,7 @@
         <v>6134431.591793407</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9370,7 +10376,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9403,7 +10409,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9436,7 +10442,7 @@
         <v>6063231.524093407</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9469,7 +10475,7 @@
         <v>6065497.405493408</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9502,7 +10508,7 @@
         <v>6064352.126493407</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9535,7 +10541,7 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9568,7 +10574,7 @@
         <v>6065408.837793407</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9601,7 +10607,7 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9634,7 +10640,7 @@
         <v>6065300.976893407</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9667,7 +10673,7 @@
         <v>6068633.562093407</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9700,7 +10706,7 @@
         <v>6059445.376493406</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9799,7 +10805,7 @@
         <v>6179739.838893407</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9832,7 +10838,7 @@
         <v>3079677.977593407</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
